--- a/Calculos/f chart method.xlsx
+++ b/Calculos/f chart method.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mayte\OneDrive\Documentos\Documentos\Proyectos digitales\Heating-Systems-Peru\Calculos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B6FF0FC-A455-4C8E-A1B1-59C6CF7D8EEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7886C32B-FBB9-49C9-9C95-692A8EBE50E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{871B7CCD-0AC1-4A84-B096-2B2F47B84CAF}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" firstSheet="1" activeTab="2" xr2:uid="{871B7CCD-0AC1-4A84-B096-2B2F47B84CAF}"/>
   </bookViews>
   <sheets>
     <sheet name="Entrada datos mensual" sheetId="10" r:id="rId1"/>
     <sheet name="Demanda Termica" sheetId="12" r:id="rId2"/>
-    <sheet name="Resumen" sheetId="11" state="hidden" r:id="rId3"/>
-    <sheet name="Analisis comparativo" sheetId="9" r:id="rId4"/>
-    <sheet name="VAN" sheetId="3" r:id="rId5"/>
-    <sheet name="Temperatura ambiente media sol" sheetId="6" r:id="rId6"/>
-    <sheet name="Irradiacion horizontal media" sheetId="5" r:id="rId7"/>
-    <sheet name="Temperatura de agua de red" sheetId="4" r:id="rId8"/>
-    <sheet name="Coeficiente de correccion K" sheetId="7" r:id="rId9"/>
+    <sheet name="Reuniones" sheetId="13" r:id="rId3"/>
+    <sheet name="Resumen" sheetId="11" state="hidden" r:id="rId4"/>
+    <sheet name="Analisis comparativo" sheetId="9" r:id="rId5"/>
+    <sheet name="VAN" sheetId="3" r:id="rId6"/>
+    <sheet name="Temperatura ambiente media sol" sheetId="6" r:id="rId7"/>
+    <sheet name="Irradiacion horizontal media" sheetId="5" r:id="rId8"/>
+    <sheet name="Temperatura de agua de red" sheetId="4" r:id="rId9"/>
+    <sheet name="Coeficiente de correccion K" sheetId="7" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -190,7 +191,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="173">
   <si>
     <t>MES</t>
   </si>
@@ -673,6 +674,42 @@
   </si>
   <si>
     <t>Ventanas pequeñas + buen aislamiento + EO</t>
+  </si>
+  <si>
+    <t>Calefacción + ACS</t>
+  </si>
+  <si>
+    <t>1. Crear caso 5 y 6 en base al caso 2 y 3 con cortinas los dos</t>
+  </si>
+  <si>
+    <t>2. Revisar la radiacion, temperatura interna, temperatura externa, demanda térmica positiva, negativa</t>
+  </si>
+  <si>
+    <t>3. Fórmulas de la potencia de diseño de calefacción y enfriamiento</t>
+  </si>
+  <si>
+    <t>4. Detalle del cálculo de la energía anual</t>
+  </si>
+  <si>
+    <t>5. Análisis de TIR y VAN</t>
+  </si>
+  <si>
+    <t>sin ventanas + buen aislamiento + NS</t>
+  </si>
+  <si>
+    <t>sin ventanas + mal aislamiento + NS</t>
+  </si>
+  <si>
+    <t>1. Revisar la data</t>
+  </si>
+  <si>
+    <t>2. ¿Hay algún caso en la que se pueda optimizar más que el caso 2, variando aislamiento y ventanas?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Encontrar la relación entre el aislamiento, orientación, </t>
+  </si>
+  <si>
+    <t>Menor demanda energética para calefacción y eliminar la demana refrigeración</t>
   </si>
 </sst>
 </file>
@@ -1099,7 +1136,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1267,6 +1304,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1321,6 +1360,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1345,20 +1399,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -11989,55 +12031,55 @@
   <sheetData>
     <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
       <c r="E2" s="22">
         <v>0.94</v>
       </c>
-      <c r="G2" s="86" t="s">
+      <c r="G2" s="88" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="87"/>
+      <c r="H2" s="89"/>
       <c r="I2" s="22">
         <v>0.99199999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="90" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="89"/>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
       <c r="E3" s="23">
         <v>1</v>
       </c>
-      <c r="G3" s="88" t="s">
+      <c r="G3" s="90" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="89"/>
+      <c r="H3" s="91"/>
       <c r="I3" s="23">
         <v>0.96</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B6" s="90" t="s">
+      <c r="B6" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="84"/>
+      <c r="C6" s="86"/>
       <c r="D6" s="17" t="s">
         <v>58</v>
       </c>
       <c r="E6" s="10"/>
-      <c r="F6" s="83" t="s">
+      <c r="F6" s="85" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="84"/>
+      <c r="G6" s="86"/>
       <c r="H6" s="21"/>
       <c r="I6" s="19"/>
       <c r="K6" s="9" t="s">
@@ -12049,20 +12091,20 @@
       <c r="M6" s="11"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B7" s="79" t="s">
+      <c r="B7" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="80"/>
+      <c r="C7" s="82"/>
       <c r="D7" s="1">
         <v>-11.59</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="85" t="s">
+      <c r="F7" s="87" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="80"/>
+      <c r="G7" s="82"/>
       <c r="H7" s="6">
         <v>60</v>
       </c>
@@ -12080,10 +12122,10 @@
       </c>
     </row>
     <row r="8" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="79" t="s">
+      <c r="B8" s="81" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="80"/>
+      <c r="C8" s="82"/>
       <c r="D8" s="1">
         <v>60</v>
       </c>
@@ -12105,10 +12147,10 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B9" s="79" t="s">
+      <c r="B9" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="80"/>
+      <c r="C9" s="82"/>
       <c r="D9" s="1">
         <v>15</v>
       </c>
@@ -12121,10 +12163,10 @@
       <c r="I9" s="13"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B10" s="79" t="s">
+      <c r="B10" s="81" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="80"/>
+      <c r="C10" s="82"/>
       <c r="D10" s="1">
         <v>40</v>
       </c>
@@ -12137,10 +12179,10 @@
       <c r="I10" s="13"/>
     </row>
     <row r="11" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="81" t="s">
+      <c r="B11" s="83" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="82"/>
+      <c r="C11" s="84"/>
       <c r="D11" s="18">
         <f>28*28</f>
         <v>784</v>
@@ -12160,17 +12202,17 @@
       <c r="F14" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="J14" s="96" t="s">
+      <c r="J14" s="98" t="s">
         <v>51</v>
       </c>
-      <c r="K14" s="96"/>
+      <c r="K14" s="98"/>
     </row>
     <row r="15" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="86" t="s">
+      <c r="A16" s="88" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="87"/>
+      <c r="B16" s="89"/>
       <c r="C16" s="10">
         <f>+L8</f>
         <v>1.9</v>
@@ -12178,17 +12220,17 @@
       <c r="D16" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="93" t="s">
+      <c r="F16" s="95" t="s">
         <v>47</v>
       </c>
-      <c r="G16" s="94"/>
+      <c r="G16" s="96"/>
       <c r="H16" s="24">
         <v>12</v>
       </c>
-      <c r="J16" s="86" t="s">
+      <c r="J16" s="88" t="s">
         <v>52</v>
       </c>
-      <c r="K16" s="87"/>
+      <c r="K16" s="89"/>
       <c r="L16" s="24">
         <f>75*H17</f>
         <v>1709.9999999999998</v>
@@ -12203,10 +12245,10 @@
       </c>
     </row>
     <row r="17" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="91" t="s">
+      <c r="A17" s="93" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="92"/>
+      <c r="B17" s="94"/>
       <c r="C17" s="27">
         <f>+D11/75</f>
         <v>10.453333333333333</v>
@@ -12214,10 +12256,10 @@
       <c r="D17" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="88" t="s">
+      <c r="F17" s="90" t="s">
         <v>48</v>
       </c>
-      <c r="G17" s="89"/>
+      <c r="G17" s="91"/>
       <c r="H17" s="25">
         <f>+H16*C16</f>
         <v>22.799999999999997</v>
@@ -12225,10 +12267,10 @@
       <c r="I17" t="s">
         <v>39</v>
       </c>
-      <c r="J17" s="91" t="s">
+      <c r="J17" s="93" t="s">
         <v>53</v>
       </c>
-      <c r="K17" s="92"/>
+      <c r="K17" s="94"/>
       <c r="L17" s="26">
         <v>855</v>
       </c>
@@ -12241,19 +12283,19 @@
       </c>
     </row>
     <row r="18" spans="1:27" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="91" t="s">
+      <c r="A18" s="93" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="92"/>
+      <c r="B18" s="94"/>
       <c r="C18" s="28">
         <f>+C17/C16</f>
         <v>5.5017543859649125</v>
       </c>
       <c r="D18" s="13"/>
-      <c r="J18" s="88" t="s">
+      <c r="J18" s="90" t="s">
         <v>57</v>
       </c>
-      <c r="K18" s="89"/>
+      <c r="K18" s="91"/>
       <c r="L18" s="25">
         <f>+L17/H17</f>
         <v>37.500000000000007</v>
@@ -12267,10 +12309,10 @@
       </c>
     </row>
     <row r="19" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="88" t="s">
+      <c r="A19" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="89"/>
+      <c r="B19" s="91"/>
       <c r="C19" s="29">
         <f>ROUNDUP(C18*C16,0)</f>
         <v>11</v>
@@ -12314,21 +12356,21 @@
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="E23" s="95" t="s">
+      <c r="E23" s="97" t="s">
         <v>49</v>
       </c>
-      <c r="F23" s="95"/>
-      <c r="G23" s="95"/>
+      <c r="F23" s="97"/>
+      <c r="G23" s="97"/>
       <c r="H23" s="6" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="E24" s="95" t="s">
+      <c r="E24" s="97" t="s">
         <v>50</v>
       </c>
-      <c r="F24" s="95"/>
-      <c r="G24" s="95"/>
+      <c r="F24" s="97"/>
+      <c r="G24" s="97"/>
       <c r="H24" s="30">
         <v>0.15</v>
       </c>
@@ -13456,12 +13498,24 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9909732E-8255-45B3-943E-5A3631F5C068}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA61E0EF-BC42-4315-A9AA-0E141C9F8D8F}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13469,46 +13523,45 @@
     <col min="2" max="2" width="22.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B1" s="106"/>
-      <c r="C1" s="107" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B1" s="101"/>
+      <c r="C1" s="102" t="s">
         <v>155</v>
       </c>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107" t="s">
+      <c r="D1" s="102"/>
+      <c r="E1" s="102" t="s">
         <v>156</v>
       </c>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B2" s="106"/>
-      <c r="C2" s="108" t="s">
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B2" s="101"/>
+      <c r="C2" s="79" t="s">
         <v>153</v>
       </c>
-      <c r="D2" s="108" t="s">
+      <c r="D2" s="79" t="s">
         <v>154</v>
       </c>
-      <c r="E2" s="107" t="s">
-        <v>153</v>
-      </c>
-      <c r="F2" s="107"/>
-      <c r="G2" s="109" t="s">
+      <c r="E2" s="103" t="s">
+        <v>161</v>
+      </c>
+      <c r="F2" s="103"/>
+      <c r="G2" s="79" t="s">
         <v>154</v>
       </c>
-      <c r="H2" s="105"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="110">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="99">
         <v>1</v>
       </c>
-      <c r="B3" s="111" t="s">
+      <c r="B3" s="100" t="s">
         <v>157</v>
       </c>
-      <c r="C3" s="106">
+      <c r="C3" s="101">
         <v>7.38</v>
       </c>
-      <c r="D3" s="106">
+      <c r="D3" s="101">
         <v>4.46</v>
       </c>
       <c r="E3" s="2">
@@ -13517,32 +13570,32 @@
       <c r="F3" s="2">
         <v>1872.23</v>
       </c>
-      <c r="G3" s="106">
+      <c r="G3" s="101">
         <v>1589.45</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="110"/>
-      <c r="B4" s="111"/>
-      <c r="C4" s="106"/>
-      <c r="D4" s="106"/>
-      <c r="E4" s="106">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="99"/>
+      <c r="B4" s="100"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101">
         <v>2657.66</v>
       </c>
-      <c r="F4" s="106"/>
-      <c r="G4" s="106"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="110">
+      <c r="F4" s="101"/>
+      <c r="G4" s="101"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="99">
         <v>2</v>
       </c>
-      <c r="B5" s="111" t="s">
+      <c r="B5" s="100" t="s">
         <v>158</v>
       </c>
-      <c r="C5" s="106">
+      <c r="C5" s="101">
         <v>6.68</v>
       </c>
-      <c r="D5" s="106">
+      <c r="D5" s="101">
         <v>0</v>
       </c>
       <c r="E5" s="2">
@@ -13551,32 +13604,32 @@
       <c r="F5" s="2">
         <v>1872.23</v>
       </c>
-      <c r="G5" s="106">
+      <c r="G5" s="101">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="110"/>
-      <c r="B6" s="111"/>
-      <c r="C6" s="106"/>
-      <c r="D6" s="106"/>
-      <c r="E6" s="106">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="99"/>
+      <c r="B6" s="100"/>
+      <c r="C6" s="101"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="101">
         <v>4349.78</v>
       </c>
-      <c r="F6" s="106"/>
-      <c r="G6" s="106"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="110">
+      <c r="F6" s="101"/>
+      <c r="G6" s="101"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="99">
         <v>3</v>
       </c>
-      <c r="B7" s="111" t="s">
+      <c r="B7" s="100" t="s">
         <v>159</v>
       </c>
-      <c r="C7" s="106">
+      <c r="C7" s="101">
         <v>21.56</v>
       </c>
-      <c r="D7" s="106">
+      <c r="D7" s="101">
         <v>9.42</v>
       </c>
       <c r="E7" s="2">
@@ -13585,32 +13638,32 @@
       <c r="F7" s="2">
         <v>1877.62</v>
       </c>
-      <c r="G7" s="106">
+      <c r="G7" s="101">
         <v>8565.36</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="110"/>
-      <c r="B8" s="111"/>
-      <c r="C8" s="106"/>
-      <c r="D8" s="106"/>
-      <c r="E8" s="106">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="99"/>
+      <c r="B8" s="100"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="101">
         <v>23061.599999999999</v>
       </c>
-      <c r="F8" s="106"/>
-      <c r="G8" s="106"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="110">
+      <c r="F8" s="101"/>
+      <c r="G8" s="101"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="99">
         <v>4</v>
       </c>
-      <c r="B9" s="111" t="s">
+      <c r="B9" s="100" t="s">
         <v>160</v>
       </c>
-      <c r="C9" s="106">
+      <c r="C9" s="101">
         <v>6.68</v>
       </c>
-      <c r="D9" s="106">
+      <c r="D9" s="101">
         <v>0.8</v>
       </c>
       <c r="E9" s="2">
@@ -13619,51 +13672,131 @@
       <c r="F9" s="2">
         <v>1872.33</v>
       </c>
-      <c r="G9" s="106">
+      <c r="G9" s="101">
         <v>2.77</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="110"/>
-      <c r="B10" s="111"/>
-      <c r="C10" s="106"/>
-      <c r="D10" s="106"/>
-      <c r="E10" s="106">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="99"/>
+      <c r="B10" s="100"/>
+      <c r="C10" s="101"/>
+      <c r="D10" s="101"/>
+      <c r="E10" s="101">
         <v>3930.88</v>
       </c>
-      <c r="F10" s="106"/>
-      <c r="G10" s="106"/>
+      <c r="F10" s="101"/>
+      <c r="G10" s="101"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="99">
+        <v>5</v>
+      </c>
+      <c r="B11" s="100" t="s">
+        <v>167</v>
+      </c>
+      <c r="C11" s="101">
+        <v>6.68</v>
+      </c>
+      <c r="D11" s="101">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>2477.54</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1872.23</v>
+      </c>
+      <c r="G11" s="101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="99"/>
+      <c r="B12" s="100"/>
+      <c r="C12" s="101"/>
+      <c r="D12" s="101"/>
+      <c r="E12" s="101">
+        <v>4349.78</v>
+      </c>
+      <c r="F12" s="101"/>
+      <c r="G12" s="101"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="99">
+        <v>6</v>
+      </c>
+      <c r="B13" s="100" t="s">
+        <v>168</v>
+      </c>
+      <c r="C13" s="101">
+        <v>21.56</v>
+      </c>
+      <c r="D13" s="101">
+        <v>9.42</v>
+      </c>
+      <c r="E13" s="2">
+        <v>21183.8</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1877.62</v>
+      </c>
+      <c r="G13" s="101">
+        <v>8565.36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="99"/>
+      <c r="B14" s="100"/>
+      <c r="C14" s="101"/>
+      <c r="D14" s="101"/>
+      <c r="E14" s="101">
+        <v>23061.599999999999</v>
+      </c>
+      <c r="F14" s="101"/>
+      <c r="G14" s="101"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="40">
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="B9:B10"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="E10:F10"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="E8:F8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G3:G4"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G5:G6"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E1:G1"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="E14:F14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -13671,6 +13804,79 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6AE83B0-A4A9-44CA-9133-56EE86115956}">
+  <dimension ref="A1:A20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="86.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="112">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="80">
+        <v>45002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>172</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC73C649-6E26-433C-A861-39C6A9362175}">
   <dimension ref="A1:M36"/>
   <sheetViews>
@@ -13688,10 +13894,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="80"/>
+      <c r="B1" s="82"/>
       <c r="C1" s="1">
         <v>-11.59</v>
       </c>
@@ -13700,10 +13906,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="81" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="80"/>
+      <c r="B2" s="82"/>
       <c r="C2" s="1">
         <v>60</v>
       </c>
@@ -13712,10 +13918,10 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="79" t="s">
+      <c r="A3" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="80"/>
+      <c r="B3" s="82"/>
       <c r="C3" s="1">
         <v>15</v>
       </c>
@@ -13724,10 +13930,10 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="79" t="s">
+      <c r="A4" s="81" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="80"/>
+      <c r="B4" s="82"/>
       <c r="C4" s="1">
         <v>40</v>
       </c>
@@ -13736,10 +13942,10 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="81" t="s">
+      <c r="A5" s="83" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="82"/>
+      <c r="B5" s="84"/>
       <c r="C5" s="18">
         <v>2800</v>
       </c>
@@ -14023,36 +14229,36 @@
     </row>
     <row r="25" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="26" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="98" t="s">
+      <c r="A26" s="105" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="98"/>
-      <c r="C26" s="99"/>
-      <c r="D26" s="97" t="s">
+      <c r="B26" s="105"/>
+      <c r="C26" s="106"/>
+      <c r="D26" s="104" t="s">
         <v>46</v>
       </c>
-      <c r="E26" s="98"/>
-      <c r="F26" s="99"/>
-      <c r="G26" s="100" t="s">
+      <c r="E26" s="105"/>
+      <c r="F26" s="106"/>
+      <c r="G26" s="107" t="s">
         <v>51</v>
       </c>
-      <c r="H26" s="101"/>
-      <c r="I26" s="102"/>
+      <c r="H26" s="108"/>
+      <c r="I26" s="109"/>
       <c r="K26" s="9"/>
       <c r="L26" s="24">
         <v>0.77</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="98"/>
-      <c r="B27" s="98"/>
-      <c r="C27" s="99"/>
-      <c r="D27" s="97"/>
-      <c r="E27" s="98"/>
-      <c r="F27" s="99"/>
-      <c r="G27" s="100"/>
-      <c r="H27" s="101"/>
-      <c r="I27" s="102"/>
+      <c r="A27" s="105"/>
+      <c r="B27" s="105"/>
+      <c r="C27" s="106"/>
+      <c r="D27" s="104"/>
+      <c r="E27" s="105"/>
+      <c r="F27" s="106"/>
+      <c r="G27" s="107"/>
+      <c r="H27" s="108"/>
+      <c r="I27" s="109"/>
       <c r="K27" s="12"/>
       <c r="L27" s="26">
         <v>0.96</v>
@@ -14066,17 +14272,17 @@
         <v>1.9</v>
       </c>
       <c r="C28" s="32"/>
-      <c r="D28" s="104" t="s">
+      <c r="D28" s="111" t="s">
         <v>77</v>
       </c>
       <c r="E28">
         <v>18</v>
       </c>
       <c r="F28" s="32"/>
-      <c r="G28" s="104" t="s">
+      <c r="G28" s="111" t="s">
         <v>52</v>
       </c>
-      <c r="H28" s="101">
+      <c r="H28" s="108">
         <v>2565</v>
       </c>
       <c r="I28" s="32"/>
@@ -14093,10 +14299,10 @@
         <v>37.33</v>
       </c>
       <c r="C29" s="32"/>
-      <c r="D29" s="104"/>
+      <c r="D29" s="111"/>
       <c r="F29" s="32"/>
-      <c r="G29" s="104"/>
-      <c r="H29" s="101"/>
+      <c r="G29" s="111"/>
+      <c r="H29" s="108"/>
       <c r="I29" s="32"/>
       <c r="K29" s="12"/>
       <c r="L29" s="13">
@@ -14111,17 +14317,17 @@
         <v>20</v>
       </c>
       <c r="C30" s="32"/>
-      <c r="D30" s="104" t="s">
+      <c r="D30" s="111" t="s">
         <v>78</v>
       </c>
       <c r="E30">
         <v>34.200000000000003</v>
       </c>
       <c r="F30" s="32"/>
-      <c r="G30" s="104" t="s">
+      <c r="G30" s="111" t="s">
         <v>53</v>
       </c>
-      <c r="H30" s="101">
+      <c r="H30" s="108">
         <v>2565</v>
       </c>
       <c r="I30" s="32"/>
@@ -14141,10 +14347,10 @@
         <v>38</v>
       </c>
       <c r="C31" s="32"/>
-      <c r="D31" s="104"/>
+      <c r="D31" s="111"/>
       <c r="F31" s="32"/>
-      <c r="G31" s="104"/>
-      <c r="H31" s="101"/>
+      <c r="G31" s="111"/>
+      <c r="H31" s="108"/>
       <c r="I31" s="32"/>
       <c r="K31" s="12"/>
       <c r="L31" s="26">
@@ -14170,25 +14376,25 @@
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B34" s="103" t="s">
+      <c r="B34" s="110" t="s">
         <v>80</v>
       </c>
-      <c r="C34" s="103"/>
-      <c r="D34" s="103"/>
-      <c r="E34" s="103"/>
-      <c r="F34" s="103"/>
+      <c r="C34" s="110"/>
+      <c r="D34" s="110"/>
+      <c r="E34" s="110"/>
+      <c r="F34" s="110"/>
       <c r="G34" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B36" s="103" t="s">
+      <c r="B36" s="110" t="s">
         <v>81</v>
       </c>
-      <c r="C36" s="103"/>
-      <c r="D36" s="103"/>
-      <c r="E36" s="103"/>
-      <c r="F36" s="103"/>
+      <c r="C36" s="110"/>
+      <c r="D36" s="110"/>
+      <c r="E36" s="110"/>
+      <c r="F36" s="110"/>
       <c r="G36" t="s">
         <v>82</v>
       </c>
@@ -14219,7 +14425,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A0AEE5E-86AC-4A54-B212-774DBF0D4CD5}">
   <dimension ref="A1:I22"/>
   <sheetViews>
@@ -14728,7 +14934,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD11B563-8FEB-4955-9C11-90ACDDE8E6C6}">
   <dimension ref="A1:K110"/>
   <sheetViews>
@@ -15864,7 +16070,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB645236-A81B-408F-AF45-15A4013560D3}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -15876,7 +16082,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67BB5457-036E-4EE3-8A14-27942CD7724B}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -15890,7 +16096,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9C8DE6B-2A7F-4500-B0AA-609EDFEE9482}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -15900,16 +16106,4 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9909732E-8255-45B3-943E-5A3631F5C068}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Calculos/f chart method.xlsx
+++ b/Calculos/f chart method.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mayte\OneDrive\Documentos\Documentos\Proyectos digitales\Heating-Systems-Peru\Calculos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7886C32B-FBB9-49C9-9C95-692A8EBE50E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA5E69DB-D5D7-4667-94F6-F34EABB5A361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" firstSheet="1" activeTab="2" xr2:uid="{871B7CCD-0AC1-4A84-B096-2B2F47B84CAF}"/>
+    <workbookView xWindow="28680" yWindow="1530" windowWidth="21840" windowHeight="13020" xr2:uid="{871B7CCD-0AC1-4A84-B096-2B2F47B84CAF}"/>
   </bookViews>
   <sheets>
     <sheet name="Entrada datos mensual" sheetId="10" r:id="rId1"/>
@@ -1136,7 +1136,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1306,6 +1306,10 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1399,9 +1403,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1572,40 +1573,40 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>2442.833251012788</c:v>
+                  <c:v>1349.6822527338013</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3053.4807824520049</c:v>
+                  <c:v>1746.8628279966576</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4321.107294828048</c:v>
+                  <c:v>2615.4170105352332</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5039.0904273050328</c:v>
+                  <c:v>3146.6506993477828</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5623.3829286976552</c:v>
+                  <c:v>3658.793420344256</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5956.2353149618402</c:v>
+                  <c:v>3972.0316100145728</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6364.4869175432332</c:v>
+                  <c:v>4330.8201153192531</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5876.7030660714363</c:v>
+                  <c:v>3891.5165763427453</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4921.4948737742961</c:v>
+                  <c:v>3099.4184809776175</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3764.7901926131244</c:v>
+                  <c:v>2222.1546132829731</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2781.7112765357606</c:v>
+                  <c:v>1577.2522349701121</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2090.6072883796269</c:v>
+                  <c:v>1149.0859752167935</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1875,40 +1876,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>510.57109359029658</c:v>
+                  <c:v>744.3184784012941</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>279.05428959091859</c:v>
+                  <c:v>558.44710017415093</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>108.5064446679837</c:v>
+                  <c:v>473.23249246803198</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-74.113621347463862</c:v>
+                  <c:v>330.54487324190694</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-144.28173581366985</c:v>
+                  <c:v>275.80447416802917</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-228.1107883683114</c:v>
+                  <c:v>196.16950565685787</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-271.41769531606275</c:v>
+                  <c:v>163.43924333668869</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-189.52756511770158</c:v>
+                  <c:v>234.96287679449469</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-43.49333080049059</c:v>
+                  <c:v>346.11944219483041</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>213.10195687528397</c:v>
+                  <c:v>542.96218016787088</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>389.20660178789575</c:v>
+                  <c:v>646.75487418683679</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>570.43803049361861</c:v>
+                  <c:v>771.7625913659142</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12005,15 +12006,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46D77FBD-505A-47A8-B255-BE98960373ED}">
-  <dimension ref="A1:AA52"/>
+  <dimension ref="A1:AA53"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N34" sqref="N34"/>
+    <sheetView tabSelected="1" topLeftCell="G27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O40" sqref="O40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="40.44140625" customWidth="1"/>
+    <col min="1" max="1" width="46.88671875" customWidth="1"/>
     <col min="2" max="2" width="20.109375" customWidth="1"/>
     <col min="3" max="3" width="16.109375" customWidth="1"/>
     <col min="4" max="4" width="21.109375" customWidth="1"/>
@@ -12025,61 +12026,62 @@
     <col min="10" max="10" width="19.21875" customWidth="1"/>
     <col min="11" max="11" width="21.77734375" customWidth="1"/>
     <col min="12" max="12" width="15.77734375" customWidth="1"/>
-    <col min="14" max="14" width="33.21875" customWidth="1"/>
+    <col min="13" max="13" width="17.33203125" customWidth="1"/>
+    <col min="14" max="14" width="22.109375" customWidth="1"/>
     <col min="17" max="17" width="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="90" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
       <c r="E2" s="22">
         <v>0.94</v>
       </c>
-      <c r="G2" s="88" t="s">
+      <c r="G2" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="89"/>
+      <c r="H2" s="91"/>
       <c r="I2" s="22">
         <v>0.99199999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="90" t="s">
+      <c r="A3" s="92" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
       <c r="E3" s="23">
         <v>1</v>
       </c>
-      <c r="G3" s="90" t="s">
+      <c r="G3" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="91"/>
+      <c r="H3" s="93"/>
       <c r="I3" s="23">
         <v>0.96</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B6" s="92" t="s">
+      <c r="B6" s="94" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="86"/>
+      <c r="C6" s="88"/>
       <c r="D6" s="17" t="s">
         <v>58</v>
       </c>
       <c r="E6" s="10"/>
-      <c r="F6" s="85" t="s">
+      <c r="F6" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="86"/>
+      <c r="G6" s="88"/>
       <c r="H6" s="21"/>
       <c r="I6" s="19"/>
       <c r="K6" s="9" t="s">
@@ -12091,20 +12093,20 @@
       <c r="M6" s="11"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B7" s="81" t="s">
+      <c r="B7" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="82"/>
+      <c r="C7" s="84"/>
       <c r="D7" s="1">
         <v>-11.59</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="87" t="s">
+      <c r="F7" s="89" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="82"/>
+      <c r="G7" s="84"/>
       <c r="H7" s="6">
         <v>60</v>
       </c>
@@ -12122,10 +12124,10 @@
       </c>
     </row>
     <row r="8" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="81" t="s">
+      <c r="B8" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="82"/>
+      <c r="C8" s="84"/>
       <c r="D8" s="1">
         <v>60</v>
       </c>
@@ -12147,10 +12149,10 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B9" s="81" t="s">
+      <c r="B9" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="82"/>
+      <c r="C9" s="84"/>
       <c r="D9" s="1">
         <v>15</v>
       </c>
@@ -12163,10 +12165,10 @@
       <c r="I9" s="13"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B10" s="81" t="s">
+      <c r="B10" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="82"/>
+      <c r="C10" s="84"/>
       <c r="D10" s="1">
         <v>40</v>
       </c>
@@ -12179,10 +12181,10 @@
       <c r="I10" s="13"/>
     </row>
     <row r="11" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="83" t="s">
+      <c r="B11" s="85" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="84"/>
+      <c r="C11" s="86"/>
       <c r="D11" s="18">
         <f>28*28</f>
         <v>784</v>
@@ -12202,17 +12204,17 @@
       <c r="F14" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="J14" s="98" t="s">
+      <c r="J14" s="100" t="s">
         <v>51</v>
       </c>
-      <c r="K14" s="98"/>
+      <c r="K14" s="100"/>
     </row>
     <row r="15" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="88" t="s">
+      <c r="A16" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="89"/>
+      <c r="B16" s="91"/>
       <c r="C16" s="10">
         <f>+L8</f>
         <v>1.9</v>
@@ -12220,20 +12222,20 @@
       <c r="D16" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="95" t="s">
+      <c r="F16" s="97" t="s">
         <v>47</v>
       </c>
-      <c r="G16" s="96"/>
+      <c r="G16" s="98"/>
       <c r="H16" s="24">
-        <v>12</v>
-      </c>
-      <c r="J16" s="88" t="s">
+        <v>6</v>
+      </c>
+      <c r="J16" s="90" t="s">
         <v>52</v>
       </c>
-      <c r="K16" s="89"/>
+      <c r="K16" s="91"/>
       <c r="L16" s="24">
         <f>75*H17</f>
-        <v>1709.9999999999998</v>
+        <v>854.99999999999989</v>
       </c>
       <c r="N16" t="s">
         <v>92</v>
@@ -12245,10 +12247,10 @@
       </c>
     </row>
     <row r="17" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="93" t="s">
+      <c r="A17" s="95" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="94"/>
+      <c r="B17" s="96"/>
       <c r="C17" s="27">
         <f>+D11/75</f>
         <v>10.453333333333333</v>
@@ -12256,21 +12258,21 @@
       <c r="D17" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="90" t="s">
+      <c r="F17" s="92" t="s">
         <v>48</v>
       </c>
-      <c r="G17" s="91"/>
+      <c r="G17" s="93"/>
       <c r="H17" s="25">
         <f>+H16*C16</f>
-        <v>22.799999999999997</v>
+        <v>11.399999999999999</v>
       </c>
       <c r="I17" t="s">
         <v>39</v>
       </c>
-      <c r="J17" s="93" t="s">
+      <c r="J17" s="95" t="s">
         <v>53</v>
       </c>
-      <c r="K17" s="94"/>
+      <c r="K17" s="96"/>
       <c r="L17" s="26">
         <v>855</v>
       </c>
@@ -12283,22 +12285,22 @@
       </c>
     </row>
     <row r="18" spans="1:27" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="93" t="s">
+      <c r="A18" s="95" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="94"/>
+      <c r="B18" s="96"/>
       <c r="C18" s="28">
         <f>+C17/C16</f>
         <v>5.5017543859649125</v>
       </c>
       <c r="D18" s="13"/>
-      <c r="J18" s="90" t="s">
+      <c r="J18" s="92" t="s">
         <v>57</v>
       </c>
-      <c r="K18" s="91"/>
+      <c r="K18" s="93"/>
       <c r="L18" s="25">
         <f>+L17/H17</f>
-        <v>37.500000000000007</v>
+        <v>75.000000000000014</v>
       </c>
       <c r="N18" s="55" t="s">
         <v>107</v>
@@ -12309,10 +12311,10 @@
       </c>
     </row>
     <row r="19" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="90" t="s">
+      <c r="A19" s="92" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="91"/>
+      <c r="B19" s="93"/>
       <c r="C19" s="29">
         <f>ROUNDUP(C18*C16,0)</f>
         <v>11</v>
@@ -12356,21 +12358,21 @@
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="E23" s="97" t="s">
+      <c r="E23" s="99" t="s">
         <v>49</v>
       </c>
-      <c r="F23" s="97"/>
-      <c r="G23" s="97"/>
+      <c r="F23" s="99"/>
+      <c r="G23" s="99"/>
       <c r="H23" s="6" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="E24" s="97" t="s">
+      <c r="E24" s="99" t="s">
         <v>50</v>
       </c>
-      <c r="F24" s="97"/>
-      <c r="G24" s="97"/>
+      <c r="F24" s="99"/>
+      <c r="G24" s="99"/>
       <c r="H24" s="30">
         <v>0.15</v>
       </c>
@@ -12654,43 +12656,43 @@
       </c>
       <c r="H40" s="36">
         <f>+$P$20*$P$18*(100-E40)*3600*F40*B40*$H$17/(G40*10^6)</f>
-        <v>1.756269699272168</v>
+        <v>0.87813484963608401</v>
       </c>
       <c r="I40" s="36">
         <f>$P$16*$P$18*$P$17*D40*10^6*B40*$H$17/(G40*10^6)</f>
-        <v>0.70933582247546878</v>
+        <v>0.35466791123773439</v>
       </c>
       <c r="J40" s="52">
-        <f t="shared" ref="J40:J51" si="1">1.029*I40-0.065*H40-0.245*I40^2+0.0018*H40^2+0.0215*I40^3</f>
-        <v>0.50570107134832876</v>
+        <f>1.029*I40-0.065*H40-0.245*I40^2+0.0018*H40^2+0.0215*I40^3</f>
+        <v>0.27940333663967148</v>
       </c>
       <c r="K40" s="47">
-        <f t="shared" ref="K40:K51" si="2">+J40*G40</f>
-        <v>2442.833251012788</v>
+        <f>+J40*G40</f>
+        <v>1349.6822527338013</v>
       </c>
       <c r="L40" s="51">
         <f>+K40/(D40*$H$17*B40)</f>
-        <v>0.44310094811805978</v>
+        <v>0.48963267189565157</v>
       </c>
       <c r="M40" s="57">
         <f>+(G40-K40)*0.77*0.2777</f>
-        <v>510.57109359029658</v>
+        <v>744.3184784012941</v>
       </c>
       <c r="N40" s="58">
         <f>+G40*0.277*$C$29-$C$33*(($C$30+$C$32*$L$18)*$H$17+$C$31)</f>
-        <v>-215.00744171826602</v>
+        <v>222.75255828173385</v>
       </c>
       <c r="O40" s="2">
         <f>+(G40-K40)*$F$29</f>
-        <v>978.97922345435654</v>
+        <v>1427.171132748741</v>
       </c>
       <c r="P40" s="2">
         <f>+(($C$30+$C$32*$L$18)*$H$17+$C$31)</f>
-        <v>9911.5999999999985</v>
+        <v>6263.5999999999995</v>
       </c>
       <c r="Q40" s="2">
         <f>+K40*J40*$C$29*0.277</f>
-        <v>249.18284511384445</v>
+        <v>76.066523700886606</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.3">
@@ -12718,43 +12720,43 @@
       </c>
       <c r="H41" s="36">
         <f>+$P$20*$P$18*(100-E41)*3600*F41*B41*$H$17/(G41*10^6)</f>
-        <v>1.5214513180499307</v>
+        <v>0.76072565902496536</v>
       </c>
       <c r="I41" s="36">
-        <f t="shared" ref="I41:I51" si="3">$P$16*$P$18*$P$17*D41*10^6*B41*$H$17/(G41*10^6)</f>
-        <v>0.98319288659830195</v>
+        <f t="shared" ref="I41:I51" si="1">$P$16*$P$18*$P$17*D41*10^6*B41*$H$17/(G41*10^6)</f>
+        <v>0.49159644329915098</v>
       </c>
       <c r="J41" s="52">
-        <f t="shared" si="1"/>
-        <v>0.7005781472474516</v>
+        <f t="shared" ref="J41:J51" si="2">1.029*I41-0.065*H41-0.245*I41^2+0.0018*H41^2+0.0215*I41^3</f>
+        <v>0.40079306559466721</v>
       </c>
       <c r="K41" s="47">
-        <f t="shared" si="2"/>
-        <v>3053.4807824520049</v>
+        <f t="shared" ref="K41:K51" si="3">+J41*G41</f>
+        <v>1746.8628279966576</v>
       </c>
       <c r="L41" s="51">
         <f t="shared" ref="L41:L51" si="4">+K41/(D41*$H$17*B41)</f>
-        <v>0.44287234034913747</v>
+        <v>0.50672480622756477</v>
       </c>
       <c r="M41" s="57">
         <f t="shared" ref="M41:M51" si="5">+(G41-K41)*0.77*0.2777</f>
-        <v>279.05428959091859</v>
+        <v>558.44710017415093</v>
       </c>
       <c r="N41" s="58">
-        <f t="shared" ref="N41:N51" si="6">+G41*0.277*$C$29-$C$33*(($C$30+$C$32*$L$18)*$H$17+$C$31)</f>
-        <v>-310.22971678944577</v>
+        <f>+G41*0.277*$C$29-$C$33*(($C$30+$C$32*$L$18)*$H$17+$C$31)</f>
+        <v>127.5302832105541</v>
       </c>
       <c r="O41" s="2">
-        <f t="shared" ref="O41:O51" si="7">+(G41-K41)*$F$29</f>
-        <v>535.06427440747802</v>
+        <f>+(G41-K41)*$F$29</f>
+        <v>1070.7776357341702</v>
       </c>
       <c r="P41" s="2">
-        <f t="shared" ref="P41:P51" si="8">+(($C$30+$C$32*$L$18)*$H$17+$C$31)</f>
-        <v>9911.5999999999985</v>
+        <f t="shared" ref="P41:P51" si="6">+(($C$30+$C$32*$L$18)*$H$17+$C$31)</f>
+        <v>6263.5999999999995</v>
       </c>
       <c r="Q41" s="2">
-        <f t="shared" ref="Q41:Q51" si="9">+K41*J41*$C$29*0.277</f>
-        <v>431.50141199263408</v>
+        <f t="shared" ref="Q41:Q51" si="7">+K41*J41*$C$29*0.277</f>
+        <v>141.2243049526318</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.3">
@@ -12782,43 +12784,43 @@
       </c>
       <c r="H42" s="36">
         <f>+$P$20*$P$18*(100-E42)*3600*F42*B42*$H$17/(G42*10^6)</f>
-        <v>1.8897510975967824</v>
+        <v>0.9448755487983912</v>
       </c>
       <c r="I42" s="36">
+        <f t="shared" si="1"/>
+        <v>0.69143904068012163</v>
+      </c>
+      <c r="J42" s="52">
+        <f t="shared" si="2"/>
+        <v>0.54165656325905442</v>
+      </c>
+      <c r="K42" s="47">
         <f t="shared" si="3"/>
-        <v>1.3828780813602433</v>
-      </c>
-      <c r="J42" s="52">
-        <f t="shared" si="1"/>
-        <v>0.89490743440228904</v>
-      </c>
-      <c r="K42" s="47">
-        <f t="shared" si="2"/>
-        <v>4321.107294828048</v>
+        <v>2615.4170105352332</v>
       </c>
       <c r="L42" s="51">
         <f t="shared" si="4"/>
-        <v>0.40221190529108664</v>
+        <v>0.48688995072961039</v>
       </c>
       <c r="M42" s="57">
-        <f t="shared" si="5"/>
-        <v>108.5064446679837</v>
+        <f>+(G42-K42)*0.77*0.2777</f>
+        <v>473.23249246803198</v>
       </c>
       <c r="N42" s="58">
+        <f t="shared" ref="N42:N51" si="8">+G42*0.277*$C$29-$C$33*(($C$30+$C$32*$L$18)*$H$17+$C$31)</f>
+        <v>222.34203181942871</v>
+      </c>
+      <c r="O42" s="2">
+        <f t="shared" ref="O42:O51" si="9">+(G42-K42)*$F$29</f>
+        <v>907.38544309655424</v>
+      </c>
+      <c r="P42" s="2">
         <f t="shared" si="6"/>
-        <v>-215.41796818057117</v>
-      </c>
-      <c r="O42" s="2">
+        <v>6263.5999999999995</v>
+      </c>
+      <c r="Q42" s="2">
         <f t="shared" si="7"/>
-        <v>208.05242653650026</v>
-      </c>
-      <c r="P42" s="2">
-        <f t="shared" si="8"/>
-        <v>9911.5999999999985</v>
-      </c>
-      <c r="Q42" s="2">
-        <f t="shared" si="9"/>
-        <v>780.01617706929255</v>
+        <v>285.7560260239631</v>
       </c>
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.3">
@@ -12846,43 +12848,43 @@
       </c>
       <c r="H43" s="36">
         <f>+$P$20*$P$18*(100-E43)*3600*F43*B43*$H$17/(G43*10^6)</f>
-        <v>1.0094049877849278</v>
+        <v>0.50470249389246391</v>
       </c>
       <c r="I43" s="36">
         <f>$P$16*$P$18*$P$17*D43*10^6*B43*$H$17/(G43*10^6)</f>
-        <v>1.6760437286271272</v>
+        <v>0.83802186431356362</v>
       </c>
       <c r="J43" s="52">
-        <f t="shared" si="1"/>
-        <v>1.0738632216554704</v>
+        <f t="shared" si="2"/>
+        <v>0.67057190303949721</v>
       </c>
       <c r="K43" s="47">
-        <f t="shared" si="2"/>
-        <v>5039.0904273050328</v>
+        <f t="shared" si="3"/>
+        <v>3146.6506993477828</v>
       </c>
       <c r="L43" s="51">
         <f>+K43/(D43*$H$17*B43)</f>
-        <v>0.39822114962107108</v>
+        <v>0.4973369210285733</v>
       </c>
       <c r="M43" s="57">
         <f t="shared" si="5"/>
-        <v>-74.113621347463862</v>
+        <v>330.54487324190694</v>
       </c>
       <c r="N43" s="58">
+        <f>+G43*0.277*$C$29-$C$33*(($C$30+$C$32*$L$18)*$H$17+$C$31)</f>
+        <v>194.89635139595055</v>
+      </c>
+      <c r="O43" s="2">
+        <f t="shared" si="9"/>
+        <v>633.79334902740902</v>
+      </c>
+      <c r="P43" s="2">
         <f t="shared" si="6"/>
-        <v>-242.86364860404933</v>
-      </c>
-      <c r="O43" s="2">
+        <v>6263.5999999999995</v>
+      </c>
+      <c r="Q43" s="2">
         <f t="shared" si="7"/>
-        <v>-142.10693943506345</v>
-      </c>
-      <c r="P43" s="2">
-        <f t="shared" si="8"/>
-        <v>9911.5999999999985</v>
-      </c>
-      <c r="Q43" s="2">
-        <f t="shared" si="9"/>
-        <v>1091.5196644428565</v>
+        <v>425.62225859671065</v>
       </c>
       <c r="AA43" s="46"/>
     </row>
@@ -12911,43 +12913,43 @@
       </c>
       <c r="H44" s="36">
         <f t="shared" ref="H44:H51" si="10">+$P$20*$P$18*(100-E44)*3600*F44*B44*$H$17/(G44*10^6)</f>
-        <v>1.5448226584695113</v>
+        <v>0.77241132923475564</v>
       </c>
       <c r="I44" s="36">
+        <f t="shared" si="1"/>
+        <v>0.97204500189122978</v>
+      </c>
+      <c r="J44" s="52">
+        <f t="shared" si="2"/>
+        <v>0.73935480972942569</v>
+      </c>
+      <c r="K44" s="47">
         <f t="shared" si="3"/>
-        <v>1.9440900037824596</v>
-      </c>
-      <c r="J44" s="52">
-        <f t="shared" si="1"/>
-        <v>1.1363514518651778</v>
-      </c>
-      <c r="K44" s="47">
-        <f t="shared" si="2"/>
-        <v>5623.3829286976552</v>
+        <v>3658.793420344256</v>
       </c>
       <c r="L44" s="51">
-        <f t="shared" si="4"/>
-        <v>0.36329297707447655</v>
+        <f>+K44/(D44*$H$17*B44)</f>
+        <v>0.4727453104408133</v>
       </c>
       <c r="M44" s="57">
-        <f t="shared" si="5"/>
-        <v>-144.28173581366985</v>
+        <f>+(G44-K44)*0.77*0.2777</f>
+        <v>275.80447416802917</v>
       </c>
       <c r="N44" s="58">
         <f>+G44*0.277*$C$29-$C$33*(($C$30+$C$32*$L$18)*$H$17+$C$31)</f>
-        <v>-191.19690690455582</v>
+        <v>246.56309309544406</v>
       </c>
       <c r="O44" s="2">
+        <f t="shared" si="9"/>
+        <v>528.83301333725524</v>
+      </c>
+      <c r="P44" s="2">
+        <f t="shared" si="6"/>
+        <v>6263.5999999999995</v>
+      </c>
+      <c r="Q44" s="2">
         <f t="shared" si="7"/>
-        <v>-276.64868508763846</v>
-      </c>
-      <c r="P44" s="2">
-        <f t="shared" si="8"/>
-        <v>9911.5999999999985</v>
-      </c>
-      <c r="Q44" s="2">
-        <f t="shared" si="9"/>
-        <v>1288.9639555767521</v>
+        <v>545.65889037016461</v>
       </c>
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.3">
@@ -12975,43 +12977,43 @@
       </c>
       <c r="H45" s="36">
         <f t="shared" si="10"/>
-        <v>1.2270759391622481</v>
+        <v>0.61353796958112405</v>
       </c>
       <c r="I45" s="36">
+        <f t="shared" si="1"/>
+        <v>1.07814942162339</v>
+      </c>
+      <c r="J45" s="52">
+        <f t="shared" si="2"/>
+        <v>0.81236866801122454</v>
+      </c>
+      <c r="K45" s="47">
         <f t="shared" si="3"/>
-        <v>2.15629884324678</v>
-      </c>
-      <c r="J45" s="52">
-        <f t="shared" si="1"/>
-        <v>1.2181823873146906</v>
-      </c>
-      <c r="K45" s="47">
-        <f t="shared" si="2"/>
-        <v>5956.2353149618402</v>
+        <v>3972.0316100145728</v>
       </c>
       <c r="L45" s="51">
         <f t="shared" si="4"/>
-        <v>0.35112686963319661</v>
+        <v>0.46831159333316513</v>
       </c>
       <c r="M45" s="57">
         <f t="shared" si="5"/>
-        <v>-228.1107883683114</v>
+        <v>196.16950565685787</v>
       </c>
       <c r="N45" s="58">
         <f>+G45*0.277*$C$29-$C$33*(($C$30+$C$32*$L$18)*$H$17+$C$31)</f>
-        <v>-203.13528128417749</v>
+        <v>234.62471871582238</v>
       </c>
       <c r="O45" s="2">
+        <f t="shared" si="9"/>
+        <v>376.13933245402501</v>
+      </c>
+      <c r="P45" s="2">
+        <f t="shared" si="6"/>
+        <v>6263.5999999999995</v>
+      </c>
+      <c r="Q45" s="2">
         <f t="shared" si="7"/>
-        <v>-437.38418657435454</v>
-      </c>
-      <c r="P45" s="2">
-        <f t="shared" si="8"/>
-        <v>9911.5999999999985</v>
-      </c>
-      <c r="Q45" s="2">
-        <f t="shared" si="9"/>
-        <v>1463.5737346047081</v>
+        <v>650.87307250928086</v>
       </c>
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.3">
@@ -13039,43 +13041,43 @@
       </c>
       <c r="H46" s="36">
         <f t="shared" si="10"/>
-        <v>1.3357165795545218</v>
+        <v>0.66785828977726092</v>
       </c>
       <c r="I46" s="36">
-        <f t="shared" si="3"/>
-        <v>2.3020258275867902</v>
+        <f>$P$16*$P$18*$P$17*D46*10^6*B46*$H$17/(G46*10^6)</f>
+        <v>1.1510129137933951</v>
       </c>
       <c r="J46" s="52">
-        <f t="shared" si="1"/>
-        <v>1.2491226670621487</v>
+        <f t="shared" si="2"/>
+        <v>0.84998612505628424</v>
       </c>
       <c r="K46" s="47">
-        <f t="shared" si="2"/>
-        <v>6364.4869175432332</v>
+        <f>+J46*G46</f>
+        <v>4330.8201153192531</v>
       </c>
       <c r="L46" s="51">
         <f t="shared" si="4"/>
-        <v>0.33725282475551749</v>
+        <v>0.45897849624718395</v>
       </c>
       <c r="M46" s="57">
         <f t="shared" si="5"/>
-        <v>-271.41769531606275</v>
+        <v>163.43924333668869</v>
       </c>
       <c r="N46" s="58">
+        <f t="shared" si="8"/>
+        <v>276.12099838142865</v>
+      </c>
+      <c r="O46" s="2">
+        <f t="shared" si="9"/>
+        <v>313.38167305670589</v>
+      </c>
+      <c r="P46" s="2">
         <f t="shared" si="6"/>
-        <v>-161.63900161857123</v>
-      </c>
-      <c r="O46" s="2">
+        <v>6263.5999999999995</v>
+      </c>
+      <c r="Q46" s="2">
         <f t="shared" si="7"/>
-        <v>-520.42171585512597</v>
-      </c>
-      <c r="P46" s="2">
-        <f t="shared" si="8"/>
-        <v>9911.5999999999985</v>
-      </c>
-      <c r="Q46" s="2">
-        <f t="shared" si="9"/>
-        <v>1603.6106471522733</v>
+        <v>742.52729950292849</v>
       </c>
       <c r="X46" s="8"/>
       <c r="Y46" s="8"/>
@@ -13105,43 +13107,43 @@
       </c>
       <c r="H47" s="36">
         <f t="shared" si="10"/>
-        <v>1.534242358902564</v>
+        <v>0.767121179451282</v>
       </c>
       <c r="I47" s="36">
+        <f t="shared" si="1"/>
+        <v>1.0387428985661729</v>
+      </c>
+      <c r="J47" s="52">
+        <f t="shared" si="2"/>
+        <v>0.77980803504891893</v>
+      </c>
+      <c r="K47" s="47">
         <f t="shared" si="3"/>
-        <v>2.0774857971323457</v>
-      </c>
-      <c r="J47" s="52">
-        <f t="shared" si="1"/>
-        <v>1.1776129384564911</v>
-      </c>
-      <c r="K47" s="47">
-        <f t="shared" si="2"/>
-        <v>5876.7030660714363</v>
+        <v>3891.5165763427453</v>
       </c>
       <c r="L47" s="51">
         <f t="shared" si="4"/>
-        <v>0.35231018927941149</v>
+        <v>0.46659527499721187</v>
       </c>
       <c r="M47" s="57">
         <f t="shared" si="5"/>
-        <v>-189.52756511770158</v>
+        <v>234.96287679449469</v>
       </c>
       <c r="N47" s="58">
+        <f t="shared" si="8"/>
+        <v>254.97888557270358</v>
+      </c>
+      <c r="O47" s="2">
+        <f t="shared" si="9"/>
+        <v>450.5225179266742</v>
+      </c>
+      <c r="P47" s="2">
         <f t="shared" si="6"/>
-        <v>-182.7811144272963</v>
-      </c>
-      <c r="O47" s="2">
+        <v>6263.5999999999995</v>
+      </c>
+      <c r="Q47" s="2">
         <f t="shared" si="7"/>
-        <v>-363.40394286208902</v>
-      </c>
-      <c r="P47" s="2">
-        <f t="shared" si="8"/>
-        <v>9911.5999999999985</v>
-      </c>
-      <c r="Q47" s="2">
-        <f t="shared" si="9"/>
-        <v>1395.9400253667077</v>
+        <v>612.12065482191554</v>
       </c>
       <c r="X47" s="8"/>
       <c r="Y47" s="8"/>
@@ -13171,43 +13173,43 @@
       </c>
       <c r="H48" s="36">
         <f t="shared" si="10"/>
-        <v>1.6349670018625722</v>
+        <v>0.81748350093128608</v>
       </c>
       <c r="I48" s="36">
+        <f t="shared" si="1"/>
+        <v>0.84698984750616491</v>
+      </c>
+      <c r="J48" s="52">
+        <f t="shared" si="2"/>
+        <v>0.65692194359630129</v>
+      </c>
+      <c r="K48" s="47">
         <f t="shared" si="3"/>
-        <v>1.6939796950123298</v>
-      </c>
-      <c r="J48" s="52">
-        <f t="shared" si="1"/>
-        <v>1.0431111505985731</v>
-      </c>
-      <c r="K48" s="47">
-        <f t="shared" si="2"/>
-        <v>4921.4948737742961</v>
+        <v>3099.4184809776175</v>
       </c>
       <c r="L48" s="51">
         <f t="shared" si="4"/>
-        <v>0.38272169915502491</v>
+        <v>0.48205463496603485</v>
       </c>
       <c r="M48" s="57">
         <f t="shared" si="5"/>
-        <v>-43.49333080049059</v>
+        <v>346.11944219483041</v>
       </c>
       <c r="N48" s="58">
+        <f t="shared" si="8"/>
+        <v>200.06103914753362</v>
+      </c>
+      <c r="O48" s="2">
+        <f t="shared" si="9"/>
+        <v>663.65633894317637</v>
+      </c>
+      <c r="P48" s="2">
         <f t="shared" si="6"/>
-        <v>-237.69896085246626</v>
-      </c>
-      <c r="O48" s="2">
+        <v>6263.5999999999995</v>
+      </c>
+      <c r="Q48" s="2">
         <f t="shared" si="7"/>
-        <v>-83.394982103461828</v>
-      </c>
-      <c r="P48" s="2">
-        <f t="shared" si="8"/>
-        <v>9911.5999999999985</v>
-      </c>
-      <c r="Q48" s="2">
-        <f t="shared" si="9"/>
-        <v>1035.5189923907553</v>
+        <v>410.69974299628706</v>
       </c>
       <c r="X48" s="8"/>
       <c r="Y48" s="8"/>
@@ -13238,43 +13240,43 @@
       </c>
       <c r="H49" s="36">
         <f t="shared" si="10"/>
-        <v>2.0069653206179834</v>
+        <v>1.0034826603089917</v>
       </c>
       <c r="I49" s="36">
+        <f t="shared" si="1"/>
+        <v>0.59509073856805028</v>
+      </c>
+      <c r="J49" s="52">
+        <f t="shared" si="2"/>
+        <v>0.46670291173743006</v>
+      </c>
+      <c r="K49" s="47">
         <f t="shared" si="3"/>
-        <v>1.1901814771361006</v>
-      </c>
-      <c r="J49" s="52">
-        <f t="shared" si="1"/>
-        <v>0.7906914012509898</v>
-      </c>
-      <c r="K49" s="47">
-        <f t="shared" si="2"/>
-        <v>3764.7901926131244</v>
+        <v>2222.1546132829731</v>
       </c>
       <c r="L49" s="51">
         <f t="shared" si="4"/>
-        <v>0.41290916946485806</v>
+        <v>0.48743646729291396</v>
       </c>
       <c r="M49" s="57">
         <f t="shared" si="5"/>
-        <v>213.10195687528397</v>
+        <v>542.96218016787088</v>
       </c>
       <c r="N49" s="58">
+        <f t="shared" si="8"/>
+        <v>208.79465856335253</v>
+      </c>
+      <c r="O49" s="2">
+        <f t="shared" si="9"/>
+        <v>1041.0865405011812</v>
+      </c>
+      <c r="P49" s="2">
         <f t="shared" si="6"/>
-        <v>-228.96534143664735</v>
-      </c>
-      <c r="O49" s="2">
+        <v>6263.5999999999995</v>
+      </c>
+      <c r="Q49" s="2">
         <f t="shared" si="7"/>
-        <v>408.60595297581909</v>
-      </c>
-      <c r="P49" s="2">
-        <f t="shared" si="8"/>
-        <v>9911.5999999999985</v>
-      </c>
-      <c r="Q49" s="2">
-        <f t="shared" si="9"/>
-        <v>600.45192023288769</v>
+        <v>209.19207469890335</v>
       </c>
       <c r="X49" s="8"/>
       <c r="Y49" s="8"/>
@@ -13305,43 +13307,43 @@
       </c>
       <c r="H50" s="36">
         <f t="shared" si="10"/>
-        <v>2.1320752688248641</v>
+        <v>1.066037634412432</v>
       </c>
       <c r="I50" s="36">
+        <f t="shared" si="1"/>
+        <v>0.44342684150073908</v>
+      </c>
+      <c r="J50" s="52">
+        <f t="shared" si="2"/>
+        <v>0.34274023656743219</v>
+      </c>
+      <c r="K50" s="47">
         <f t="shared" si="3"/>
-        <v>0.88685368300147815</v>
-      </c>
-      <c r="J50" s="52">
-        <f t="shared" si="1"/>
-        <v>0.6044717261093161</v>
-      </c>
-      <c r="K50" s="47">
-        <f t="shared" si="2"/>
-        <v>2781.7112765357606</v>
+        <v>1577.2522349701121</v>
       </c>
       <c r="L50" s="51">
         <f t="shared" si="4"/>
-        <v>0.42362805746463222</v>
+        <v>0.48040090002744651</v>
       </c>
       <c r="M50" s="57">
         <f t="shared" si="5"/>
-        <v>389.20660178789575</v>
+        <v>646.75487418683679</v>
       </c>
       <c r="N50" s="58">
+        <f t="shared" si="8"/>
+        <v>176.62130242880937</v>
+      </c>
+      <c r="O50" s="2">
+        <f t="shared" si="9"/>
+        <v>1240.1007272942541</v>
+      </c>
+      <c r="P50" s="2">
         <f t="shared" si="6"/>
-        <v>-261.13869757119051</v>
-      </c>
-      <c r="O50" s="2">
+        <v>6263.5999999999995</v>
+      </c>
+      <c r="Q50" s="2">
         <f t="shared" si="7"/>
-        <v>746.27252025233827</v>
-      </c>
-      <c r="P50" s="2">
-        <f t="shared" si="8"/>
-        <v>9911.5999999999985</v>
-      </c>
-      <c r="Q50" s="2">
-        <f t="shared" si="9"/>
-        <v>339.17082397204734</v>
+        <v>109.04272279603896</v>
       </c>
     </row>
     <row r="51" spans="1:26" x14ac:dyDescent="0.3">
@@ -13369,43 +13371,43 @@
       </c>
       <c r="H51" s="36">
         <f t="shared" si="10"/>
-        <v>2.2286709426980806</v>
+        <v>1.1143354713490403</v>
       </c>
       <c r="I51" s="36">
+        <f t="shared" si="1"/>
+        <v>0.32774069662826077</v>
+      </c>
+      <c r="J51" s="52">
+        <f t="shared" si="2"/>
+        <v>0.24148897277466005</v>
+      </c>
+      <c r="K51" s="47">
         <f t="shared" si="3"/>
-        <v>0.65548139325652155</v>
-      </c>
-      <c r="J51" s="52">
-        <f t="shared" si="1"/>
-        <v>0.43935668647488629</v>
-      </c>
-      <c r="K51" s="47">
-        <f t="shared" si="2"/>
-        <v>2090.6072883796269</v>
+        <v>1149.0859752167935</v>
       </c>
       <c r="L51" s="51">
         <f t="shared" si="4"/>
-        <v>0.41659837402050648</v>
+        <v>0.45796008800497134</v>
       </c>
       <c r="M51" s="57">
         <f t="shared" si="5"/>
-        <v>570.43803049361861</v>
+        <v>771.7625913659142</v>
       </c>
       <c r="N51" s="58">
+        <f t="shared" si="8"/>
+        <v>208.17886886989436</v>
+      </c>
+      <c r="O51" s="2">
+        <f t="shared" si="9"/>
+        <v>1479.7930236779146</v>
+      </c>
+      <c r="P51" s="2">
         <f t="shared" si="6"/>
-        <v>-229.58113113010552</v>
-      </c>
-      <c r="O51" s="2">
+        <v>6263.5999999999995</v>
+      </c>
+      <c r="Q51" s="2">
         <f t="shared" si="7"/>
-        <v>1093.7692852811529</v>
-      </c>
-      <c r="P51" s="2">
-        <f t="shared" si="8"/>
-        <v>9911.5999999999985</v>
-      </c>
-      <c r="Q51" s="2">
-        <f t="shared" si="9"/>
-        <v>185.27641723726336</v>
+        <v>55.973217467155024</v>
       </c>
     </row>
     <row r="52" spans="1:26" x14ac:dyDescent="0.3">
@@ -13420,33 +13422,36 @@
       <c r="H52" s="34"/>
       <c r="J52" s="53">
         <f>+K52/G52</f>
-        <v>0.90887060632981842</v>
+        <v>0.56999691881902259</v>
       </c>
       <c r="K52" s="50">
         <f>+SUM(K40:K51)</f>
-        <v>52235.923614174848</v>
+        <v>32759.685817081798</v>
       </c>
       <c r="L52" s="54">
         <f>+K52/(AVERAGE(D40:D51)*365*H17)</f>
-        <v>0.38099225165958533</v>
+        <v>0.47787750649530608</v>
       </c>
       <c r="M52" s="8">
         <f>+SUM(M40:M51)</f>
-        <v>1119.9336802422972</v>
+        <v>5284.5181321569062</v>
       </c>
       <c r="N52" s="5">
         <f>+SUM(N40:N51)</f>
-        <v>-2679.6552105173428</v>
+        <v>2573.4647894826562</v>
       </c>
       <c r="O52" s="31">
         <f>+SUM(O40:O51)</f>
-        <v>2147.3832309899117</v>
+        <v>10132.64072779806</v>
       </c>
       <c r="P52" s="2"/>
       <c r="Q52" s="2">
         <f>+SUM(Q40:Q51)</f>
-        <v>10464.726615152022</v>
-      </c>
+        <v>4264.7567884368664</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="L53" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="24">
@@ -13524,44 +13529,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B1" s="101"/>
-      <c r="C1" s="102" t="s">
+      <c r="B1" s="103"/>
+      <c r="C1" s="104" t="s">
         <v>155</v>
       </c>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102" t="s">
+      <c r="D1" s="104"/>
+      <c r="E1" s="104" t="s">
         <v>156</v>
       </c>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B2" s="101"/>
+      <c r="B2" s="103"/>
       <c r="C2" s="79" t="s">
         <v>153</v>
       </c>
       <c r="D2" s="79" t="s">
         <v>154</v>
       </c>
-      <c r="E2" s="103" t="s">
+      <c r="E2" s="105" t="s">
         <v>161</v>
       </c>
-      <c r="F2" s="103"/>
+      <c r="F2" s="105"/>
       <c r="G2" s="79" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="99">
+      <c r="A3" s="101">
         <v>1</v>
       </c>
-      <c r="B3" s="100" t="s">
+      <c r="B3" s="102" t="s">
         <v>157</v>
       </c>
-      <c r="C3" s="101">
+      <c r="C3" s="103">
         <v>7.38</v>
       </c>
-      <c r="D3" s="101">
+      <c r="D3" s="103">
         <v>4.46</v>
       </c>
       <c r="E3" s="2">
@@ -13570,32 +13575,32 @@
       <c r="F3" s="2">
         <v>1872.23</v>
       </c>
-      <c r="G3" s="101">
+      <c r="G3" s="103">
         <v>1589.45</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="99"/>
-      <c r="B4" s="100"/>
-      <c r="C4" s="101"/>
-      <c r="D4" s="101"/>
-      <c r="E4" s="101">
+      <c r="A4" s="101"/>
+      <c r="B4" s="102"/>
+      <c r="C4" s="103"/>
+      <c r="D4" s="103"/>
+      <c r="E4" s="103">
         <v>2657.66</v>
       </c>
-      <c r="F4" s="101"/>
-      <c r="G4" s="101"/>
+      <c r="F4" s="103"/>
+      <c r="G4" s="103"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="99">
+      <c r="A5" s="101">
         <v>2</v>
       </c>
-      <c r="B5" s="100" t="s">
+      <c r="B5" s="102" t="s">
         <v>158</v>
       </c>
-      <c r="C5" s="101">
+      <c r="C5" s="103">
         <v>6.68</v>
       </c>
-      <c r="D5" s="101">
+      <c r="D5" s="103">
         <v>0</v>
       </c>
       <c r="E5" s="2">
@@ -13604,32 +13609,32 @@
       <c r="F5" s="2">
         <v>1872.23</v>
       </c>
-      <c r="G5" s="101">
+      <c r="G5" s="103">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="99"/>
-      <c r="B6" s="100"/>
-      <c r="C6" s="101"/>
-      <c r="D6" s="101"/>
-      <c r="E6" s="101">
+      <c r="A6" s="101"/>
+      <c r="B6" s="102"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="103">
         <v>4349.78</v>
       </c>
-      <c r="F6" s="101"/>
-      <c r="G6" s="101"/>
+      <c r="F6" s="103"/>
+      <c r="G6" s="103"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="99">
+      <c r="A7" s="101">
         <v>3</v>
       </c>
-      <c r="B7" s="100" t="s">
+      <c r="B7" s="102" t="s">
         <v>159</v>
       </c>
-      <c r="C7" s="101">
+      <c r="C7" s="103">
         <v>21.56</v>
       </c>
-      <c r="D7" s="101">
+      <c r="D7" s="103">
         <v>9.42</v>
       </c>
       <c r="E7" s="2">
@@ -13638,32 +13643,32 @@
       <c r="F7" s="2">
         <v>1877.62</v>
       </c>
-      <c r="G7" s="101">
+      <c r="G7" s="103">
         <v>8565.36</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="99"/>
-      <c r="B8" s="100"/>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101">
+      <c r="A8" s="101"/>
+      <c r="B8" s="102"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="103">
         <v>23061.599999999999</v>
       </c>
-      <c r="F8" s="101"/>
-      <c r="G8" s="101"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="103"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="99">
+      <c r="A9" s="101">
         <v>4</v>
       </c>
-      <c r="B9" s="100" t="s">
+      <c r="B9" s="102" t="s">
         <v>160</v>
       </c>
-      <c r="C9" s="101">
+      <c r="C9" s="103">
         <v>6.68</v>
       </c>
-      <c r="D9" s="101">
+      <c r="D9" s="103">
         <v>0.8</v>
       </c>
       <c r="E9" s="2">
@@ -13672,32 +13677,32 @@
       <c r="F9" s="2">
         <v>1872.33</v>
       </c>
-      <c r="G9" s="101">
+      <c r="G9" s="103">
         <v>2.77</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="99"/>
-      <c r="B10" s="100"/>
-      <c r="C10" s="101"/>
-      <c r="D10" s="101"/>
-      <c r="E10" s="101">
+      <c r="A10" s="101"/>
+      <c r="B10" s="102"/>
+      <c r="C10" s="103"/>
+      <c r="D10" s="103"/>
+      <c r="E10" s="103">
         <v>3930.88</v>
       </c>
-      <c r="F10" s="101"/>
-      <c r="G10" s="101"/>
+      <c r="F10" s="103"/>
+      <c r="G10" s="103"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="99">
+      <c r="A11" s="101">
         <v>5</v>
       </c>
-      <c r="B11" s="100" t="s">
+      <c r="B11" s="102" t="s">
         <v>167</v>
       </c>
-      <c r="C11" s="101">
+      <c r="C11" s="103">
         <v>6.68</v>
       </c>
-      <c r="D11" s="101">
+      <c r="D11" s="103">
         <v>0</v>
       </c>
       <c r="E11" s="2">
@@ -13706,32 +13711,32 @@
       <c r="F11" s="2">
         <v>1872.23</v>
       </c>
-      <c r="G11" s="101">
+      <c r="G11" s="103">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="99"/>
-      <c r="B12" s="100"/>
-      <c r="C12" s="101"/>
-      <c r="D12" s="101"/>
-      <c r="E12" s="101">
+      <c r="A12" s="101"/>
+      <c r="B12" s="102"/>
+      <c r="C12" s="103"/>
+      <c r="D12" s="103"/>
+      <c r="E12" s="103">
         <v>4349.78</v>
       </c>
-      <c r="F12" s="101"/>
-      <c r="G12" s="101"/>
+      <c r="F12" s="103"/>
+      <c r="G12" s="103"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="99">
+      <c r="A13" s="101">
         <v>6</v>
       </c>
-      <c r="B13" s="100" t="s">
+      <c r="B13" s="102" t="s">
         <v>168</v>
       </c>
-      <c r="C13" s="101">
+      <c r="C13" s="103">
         <v>21.56</v>
       </c>
-      <c r="D13" s="101">
+      <c r="D13" s="103">
         <v>9.42</v>
       </c>
       <c r="E13" s="2">
@@ -13740,20 +13745,20 @@
       <c r="F13" s="2">
         <v>1877.62</v>
       </c>
-      <c r="G13" s="101">
+      <c r="G13" s="103">
         <v>8565.36</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="99"/>
-      <c r="B14" s="100"/>
-      <c r="C14" s="101"/>
-      <c r="D14" s="101"/>
-      <c r="E14" s="101">
+      <c r="A14" s="101"/>
+      <c r="B14" s="102"/>
+      <c r="C14" s="103"/>
+      <c r="D14" s="103"/>
+      <c r="E14" s="103">
         <v>23061.599999999999</v>
       </c>
-      <c r="F14" s="101"/>
-      <c r="G14" s="101"/>
+      <c r="F14" s="103"/>
+      <c r="G14" s="103"/>
     </row>
   </sheetData>
   <mergeCells count="40">
@@ -13807,7 +13812,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6AE83B0-A4A9-44CA-9133-56EE86115956}">
   <dimension ref="A1:A20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -13817,7 +13822,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="112">
+      <c r="A1" s="81">
         <v>45000</v>
       </c>
     </row>
@@ -13894,10 +13899,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="82"/>
+      <c r="B1" s="84"/>
       <c r="C1" s="1">
         <v>-11.59</v>
       </c>
@@ -13906,10 +13911,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="82"/>
+      <c r="B2" s="84"/>
       <c r="C2" s="1">
         <v>60</v>
       </c>
@@ -13918,10 +13923,10 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="82"/>
+      <c r="B3" s="84"/>
       <c r="C3" s="1">
         <v>15</v>
       </c>
@@ -13930,10 +13935,10 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="82"/>
+      <c r="B4" s="84"/>
       <c r="C4" s="1">
         <v>40</v>
       </c>
@@ -13942,10 +13947,10 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="83" t="s">
+      <c r="A5" s="85" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="84"/>
+      <c r="B5" s="86"/>
       <c r="C5" s="18">
         <v>2800</v>
       </c>
@@ -14229,36 +14234,36 @@
     </row>
     <row r="25" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="26" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="105" t="s">
+      <c r="A26" s="107" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="105"/>
-      <c r="C26" s="106"/>
-      <c r="D26" s="104" t="s">
+      <c r="B26" s="107"/>
+      <c r="C26" s="108"/>
+      <c r="D26" s="106" t="s">
         <v>46</v>
       </c>
-      <c r="E26" s="105"/>
-      <c r="F26" s="106"/>
-      <c r="G26" s="107" t="s">
+      <c r="E26" s="107"/>
+      <c r="F26" s="108"/>
+      <c r="G26" s="109" t="s">
         <v>51</v>
       </c>
-      <c r="H26" s="108"/>
-      <c r="I26" s="109"/>
+      <c r="H26" s="110"/>
+      <c r="I26" s="111"/>
       <c r="K26" s="9"/>
       <c r="L26" s="24">
         <v>0.77</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="105"/>
-      <c r="B27" s="105"/>
-      <c r="C27" s="106"/>
-      <c r="D27" s="104"/>
-      <c r="E27" s="105"/>
-      <c r="F27" s="106"/>
-      <c r="G27" s="107"/>
-      <c r="H27" s="108"/>
-      <c r="I27" s="109"/>
+      <c r="A27" s="107"/>
+      <c r="B27" s="107"/>
+      <c r="C27" s="108"/>
+      <c r="D27" s="106"/>
+      <c r="E27" s="107"/>
+      <c r="F27" s="108"/>
+      <c r="G27" s="109"/>
+      <c r="H27" s="110"/>
+      <c r="I27" s="111"/>
       <c r="K27" s="12"/>
       <c r="L27" s="26">
         <v>0.96</v>
@@ -14272,17 +14277,17 @@
         <v>1.9</v>
       </c>
       <c r="C28" s="32"/>
-      <c r="D28" s="111" t="s">
+      <c r="D28" s="113" t="s">
         <v>77</v>
       </c>
       <c r="E28">
         <v>18</v>
       </c>
       <c r="F28" s="32"/>
-      <c r="G28" s="111" t="s">
+      <c r="G28" s="113" t="s">
         <v>52</v>
       </c>
-      <c r="H28" s="108">
+      <c r="H28" s="110">
         <v>2565</v>
       </c>
       <c r="I28" s="32"/>
@@ -14299,10 +14304,10 @@
         <v>37.33</v>
       </c>
       <c r="C29" s="32"/>
-      <c r="D29" s="111"/>
+      <c r="D29" s="113"/>
       <c r="F29" s="32"/>
-      <c r="G29" s="111"/>
-      <c r="H29" s="108"/>
+      <c r="G29" s="113"/>
+      <c r="H29" s="110"/>
       <c r="I29" s="32"/>
       <c r="K29" s="12"/>
       <c r="L29" s="13">
@@ -14317,17 +14322,17 @@
         <v>20</v>
       </c>
       <c r="C30" s="32"/>
-      <c r="D30" s="111" t="s">
+      <c r="D30" s="113" t="s">
         <v>78</v>
       </c>
       <c r="E30">
         <v>34.200000000000003</v>
       </c>
       <c r="F30" s="32"/>
-      <c r="G30" s="111" t="s">
+      <c r="G30" s="113" t="s">
         <v>53</v>
       </c>
-      <c r="H30" s="108">
+      <c r="H30" s="110">
         <v>2565</v>
       </c>
       <c r="I30" s="32"/>
@@ -14347,10 +14352,10 @@
         <v>38</v>
       </c>
       <c r="C31" s="32"/>
-      <c r="D31" s="111"/>
+      <c r="D31" s="113"/>
       <c r="F31" s="32"/>
-      <c r="G31" s="111"/>
-      <c r="H31" s="108"/>
+      <c r="G31" s="113"/>
+      <c r="H31" s="110"/>
       <c r="I31" s="32"/>
       <c r="K31" s="12"/>
       <c r="L31" s="26">
@@ -14376,25 +14381,25 @@
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B34" s="110" t="s">
+      <c r="B34" s="112" t="s">
         <v>80</v>
       </c>
-      <c r="C34" s="110"/>
-      <c r="D34" s="110"/>
-      <c r="E34" s="110"/>
-      <c r="F34" s="110"/>
+      <c r="C34" s="112"/>
+      <c r="D34" s="112"/>
+      <c r="E34" s="112"/>
+      <c r="F34" s="112"/>
       <c r="G34" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B36" s="110" t="s">
+      <c r="B36" s="112" t="s">
         <v>81</v>
       </c>
-      <c r="C36" s="110"/>
-      <c r="D36" s="110"/>
-      <c r="E36" s="110"/>
-      <c r="F36" s="110"/>
+      <c r="C36" s="112"/>
+      <c r="D36" s="112"/>
+      <c r="E36" s="112"/>
+      <c r="F36" s="112"/>
       <c r="G36" t="s">
         <v>82</v>
       </c>
@@ -14430,7 +14435,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A10" activeCellId="1" sqref="I10:I22 A10:A22"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14939,7 +14944,7 @@
   <dimension ref="A1:K110"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T19" sqref="T19"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Calculos/f chart method.xlsx
+++ b/Calculos/f chart method.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mayte\OneDrive\Documentos\Documentos\Proyectos digitales\Heating-Systems-Peru\Calculos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA5E69DB-D5D7-4667-94F6-F34EABB5A361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9977744-D44F-4E0F-A15D-2B7AE37B7390}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="1530" windowWidth="21840" windowHeight="13020" xr2:uid="{871B7CCD-0AC1-4A84-B096-2B2F47B84CAF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{871B7CCD-0AC1-4A84-B096-2B2F47B84CAF}"/>
   </bookViews>
   <sheets>
     <sheet name="Entrada datos mensual" sheetId="10" r:id="rId1"/>
@@ -812,7 +812,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -843,19 +843,6 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -1136,7 +1123,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1156,6 +1143,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
@@ -1163,34 +1151,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1201,9 +1188,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1211,9 +1195,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1249,10 +1230,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1268,7 +1245,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1283,24 +1260,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1310,10 +1284,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1322,40 +1299,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1379,28 +1353,28 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1495,40 +1469,40 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>4830.5874545599991</c:v>
+                  <c:v>283.42732513999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4358.51559808</c:v>
+                  <c:v>255.72923152000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4828.5522375999999</c:v>
+                  <c:v>283.30791190000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4692.4881359999999</c:v>
+                  <c:v>275.32455899999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4948.6300382400004</c:v>
+                  <c:v>290.35329306</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4889.4446159999998</c:v>
+                  <c:v>286.88067899999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5095.1656593599992</c:v>
+                  <c:v>298.95104633999995</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4990.3519859199996</c:v>
+                  <c:v>292.80126447999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4718.092478399999</c:v>
+                  <c:v>276.82685459999993</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4761.3900779200003</c:v>
+                  <c:v>279.36727497999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4601.8881552000003</c:v>
+                  <c:v>270.00874379999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4758.3372524799997</c:v>
+                  <c:v>279.18815511999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1573,40 +1547,40 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>1349.6822527338013</c:v>
+                  <c:v>7555.0885495262901</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1746.8628279966576</c:v>
+                  <c:v>22707.046515617487</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2615.4170105352332</c:v>
+                  <c:v>83984.432609967102</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3146.6506993477828</c:v>
+                  <c:v>156718.21596882679</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3658.793420344256</c:v>
+                  <c:v>271302.46992386086</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3972.0316100145728</c:v>
+                  <c:v>377083.4469413879</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4330.8201153192531</c:v>
+                  <c:v>486695.40468883188</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3891.5165763427453</c:v>
+                  <c:v>340603.31017618719</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3099.4184809776175</c:v>
+                  <c:v>163422.40660500948</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2222.1546132829731</c:v>
+                  <c:v>49223.808325684178</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1577.2522349701121</c:v>
+                  <c:v>16670.563085495512</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1149.0859752167935</c:v>
+                  <c:v>5733.1911091726361</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1876,40 +1850,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>744.3184784012941</c:v>
+                  <c:v>-1554.8920479492961</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>558.44710017415093</c:v>
+                  <c:v>-4800.7427235412815</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>473.23249246803198</c:v>
+                  <c:v>-17897.72779306299</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>330.54487324190694</c:v>
+                  <c:v>-33452.027027271855</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>275.80447416802917</c:v>
+                  <c:v>-57950.249887047525</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>196.16950565685787</c:v>
+                  <c:v>-80570.032967320134</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>163.43924333668869</c:v>
+                  <c:v>-104005.6672859204</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>234.96287679449469</c:v>
+                  <c:v>-72768.255810081435</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>346.11944219483041</c:v>
+                  <c:v>-34885.256172450318</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>542.96218016787088</c:v>
+                  <c:v>-10465.740885431023</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>646.75487418683679</c:v>
+                  <c:v>-3506.9141343304095</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>771.7625913659142</c:v>
+                  <c:v>-1166.2239976621211</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9894,9 +9868,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>676042</xdr:colOff>
+      <xdr:colOff>676762</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>107584</xdr:rowOff>
+      <xdr:rowOff>108304</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
       <mc:Choice Requires="xdr14">
@@ -12006,15 +11980,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46D77FBD-505A-47A8-B255-BE98960373ED}">
-  <dimension ref="A1:AA53"/>
+  <dimension ref="A1:AA61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O40" sqref="O40"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="46.88671875" customWidth="1"/>
+    <col min="1" max="1" width="13.77734375" customWidth="1"/>
     <col min="2" max="2" width="20.109375" customWidth="1"/>
     <col min="3" max="3" width="16.109375" customWidth="1"/>
     <col min="4" max="4" width="21.109375" customWidth="1"/>
@@ -12022,66 +11996,66 @@
     <col min="6" max="6" width="16.77734375" customWidth="1"/>
     <col min="7" max="7" width="29.77734375" customWidth="1"/>
     <col min="8" max="8" width="34.77734375" customWidth="1"/>
-    <col min="9" max="9" width="41" customWidth="1"/>
+    <col min="9" max="9" width="24.33203125" customWidth="1"/>
     <col min="10" max="10" width="19.21875" customWidth="1"/>
     <col min="11" max="11" width="21.77734375" customWidth="1"/>
     <col min="12" max="12" width="15.77734375" customWidth="1"/>
     <col min="13" max="13" width="17.33203125" customWidth="1"/>
-    <col min="14" max="14" width="22.109375" customWidth="1"/>
+    <col min="14" max="14" width="34.21875" customWidth="1"/>
     <col min="17" max="17" width="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
       <c r="E2" s="22">
         <v>0.94</v>
       </c>
-      <c r="G2" s="90" t="s">
+      <c r="G2" s="85" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="91"/>
+      <c r="H2" s="86"/>
       <c r="I2" s="22">
         <v>0.99199999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
       <c r="E3" s="23">
         <v>1</v>
       </c>
-      <c r="G3" s="92" t="s">
+      <c r="G3" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="93"/>
+      <c r="H3" s="88"/>
       <c r="I3" s="23">
         <v>0.96</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B6" s="94" t="s">
+      <c r="B6" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="88"/>
+      <c r="C6" s="83"/>
       <c r="D6" s="17" t="s">
         <v>58</v>
       </c>
       <c r="E6" s="10"/>
-      <c r="F6" s="87" t="s">
+      <c r="F6" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="88"/>
+      <c r="G6" s="83"/>
       <c r="H6" s="21"/>
       <c r="I6" s="19"/>
       <c r="K6" s="9" t="s">
@@ -12093,20 +12067,20 @@
       <c r="M6" s="11"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B7" s="83" t="s">
+      <c r="B7" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="84"/>
+      <c r="C7" s="79"/>
       <c r="D7" s="1">
         <v>-11.59</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="89" t="s">
+      <c r="F7" s="84" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="84"/>
+      <c r="G7" s="79"/>
       <c r="H7" s="6">
         <v>60</v>
       </c>
@@ -12124,10 +12098,10 @@
       </c>
     </row>
     <row r="8" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="83" t="s">
+      <c r="B8" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="84"/>
+      <c r="C8" s="79"/>
       <c r="D8" s="1">
         <v>60</v>
       </c>
@@ -12149,10 +12123,10 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B9" s="83" t="s">
+      <c r="B9" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="84"/>
+      <c r="C9" s="79"/>
       <c r="D9" s="1">
         <v>15</v>
       </c>
@@ -12165,10 +12139,10 @@
       <c r="I9" s="13"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B10" s="83" t="s">
+      <c r="B10" s="78" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="84"/>
+      <c r="C10" s="79"/>
       <c r="D10" s="1">
         <v>40</v>
       </c>
@@ -12181,13 +12155,13 @@
       <c r="I10" s="13"/>
     </row>
     <row r="11" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="85" t="s">
+      <c r="B11" s="80" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="86"/>
+      <c r="C11" s="81"/>
       <c r="D11" s="18">
-        <f>28*28</f>
-        <v>784</v>
+        <f>2*23</f>
+        <v>46</v>
       </c>
       <c r="E11" s="15" t="s">
         <v>55</v>
@@ -12204,38 +12178,37 @@
       <c r="F14" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="J14" s="100" t="s">
+      <c r="J14" s="95" t="s">
         <v>51</v>
       </c>
-      <c r="K14" s="100"/>
+      <c r="K14" s="95"/>
     </row>
     <row r="15" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="90" t="s">
+      <c r="A16" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="91"/>
+      <c r="B16" s="86"/>
       <c r="C16" s="10">
-        <f>+L8</f>
-        <v>1.9</v>
+        <v>4.4610000000000003</v>
       </c>
       <c r="D16" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="97" t="s">
+      <c r="F16" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="G16" s="98"/>
+      <c r="G16" s="93"/>
       <c r="H16" s="24">
         <v>6</v>
       </c>
-      <c r="J16" s="90" t="s">
+      <c r="J16" s="85" t="s">
         <v>52</v>
       </c>
-      <c r="K16" s="91"/>
+      <c r="K16" s="86"/>
       <c r="L16" s="24">
         <f>75*H17</f>
-        <v>854.99999999999989</v>
+        <v>2007.45</v>
       </c>
       <c r="N16" t="s">
         <v>92</v>
@@ -12247,32 +12220,32 @@
       </c>
     </row>
     <row r="17" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="95" t="s">
+      <c r="A17" s="90" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="96"/>
+      <c r="B17" s="91"/>
       <c r="C17" s="27">
         <f>+D11/75</f>
-        <v>10.453333333333333</v>
+        <v>0.61333333333333329</v>
       </c>
       <c r="D17" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="92" t="s">
+      <c r="F17" s="87" t="s">
         <v>48</v>
       </c>
-      <c r="G17" s="93"/>
+      <c r="G17" s="88"/>
       <c r="H17" s="25">
         <f>+H16*C16</f>
-        <v>11.399999999999999</v>
+        <v>26.766000000000002</v>
       </c>
       <c r="I17" t="s">
         <v>39</v>
       </c>
-      <c r="J17" s="95" t="s">
+      <c r="J17" s="90" t="s">
         <v>53</v>
       </c>
-      <c r="K17" s="96"/>
+      <c r="K17" s="91"/>
       <c r="L17" s="26">
         <v>855</v>
       </c>
@@ -12285,24 +12258,24 @@
       </c>
     </row>
     <row r="18" spans="1:27" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="95" t="s">
+      <c r="A18" s="90" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="96"/>
+      <c r="B18" s="91"/>
       <c r="C18" s="28">
         <f>+C17/C16</f>
-        <v>5.5017543859649125</v>
+        <v>0.13748785772995589</v>
       </c>
       <c r="D18" s="13"/>
-      <c r="J18" s="92" t="s">
+      <c r="J18" s="87" t="s">
         <v>57</v>
       </c>
-      <c r="K18" s="93"/>
+      <c r="K18" s="88"/>
       <c r="L18" s="25">
         <f>+L17/H17</f>
-        <v>75.000000000000014</v>
-      </c>
-      <c r="N18" s="55" t="s">
+        <v>31.943510423671821</v>
+      </c>
+      <c r="N18" s="53" t="s">
         <v>107</v>
       </c>
       <c r="O18" s="12"/>
@@ -12311,13 +12284,13 @@
       </c>
     </row>
     <row r="19" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="92" t="s">
+      <c r="A19" s="87" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="93"/>
+      <c r="B19" s="88"/>
       <c r="C19" s="29">
         <f>ROUNDUP(C18*C16,0)</f>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D19" s="16" t="s">
         <v>39</v>
@@ -12358,21 +12331,21 @@
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="E23" s="99" t="s">
+      <c r="E23" s="94" t="s">
         <v>49</v>
       </c>
-      <c r="F23" s="99"/>
-      <c r="G23" s="99"/>
+      <c r="F23" s="94"/>
+      <c r="G23" s="94"/>
       <c r="H23" s="6" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="E24" s="99" t="s">
+      <c r="E24" s="94" t="s">
         <v>50</v>
       </c>
-      <c r="F24" s="99"/>
-      <c r="G24" s="99"/>
+      <c r="F24" s="94"/>
+      <c r="G24" s="94"/>
       <c r="H24" s="30">
         <v>0.15</v>
       </c>
@@ -12386,19 +12359,23 @@
       </c>
     </row>
     <row r="28" spans="1:27" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="O28" s="45"/>
-      <c r="P28" s="45"/>
-      <c r="Q28" s="45"/>
-      <c r="R28" s="45"/>
-      <c r="S28" s="45"/>
-      <c r="T28" s="45"/>
-      <c r="U28" s="45"/>
-      <c r="V28" s="45"/>
-      <c r="W28" s="45"/>
-      <c r="X28" s="45"/>
-      <c r="Y28" s="45"/>
-      <c r="Z28" s="45"/>
-      <c r="AA28" s="45"/>
+      <c r="J28">
+        <f>28*28</f>
+        <v>784</v>
+      </c>
+      <c r="O28" s="43"/>
+      <c r="P28" s="43"/>
+      <c r="Q28" s="43"/>
+      <c r="R28" s="43"/>
+      <c r="S28" s="43"/>
+      <c r="T28" s="43"/>
+      <c r="U28" s="43"/>
+      <c r="V28" s="43"/>
+      <c r="W28" s="43"/>
+      <c r="X28" s="43"/>
+      <c r="Y28" s="43"/>
+      <c r="Z28" s="43"/>
+      <c r="AA28" s="43"/>
     </row>
     <row r="29" spans="1:27" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="9" t="s">
@@ -12410,19 +12387,19 @@
       <c r="C29" s="11">
         <v>0.72819999999999996</v>
       </c>
-      <c r="E29" s="71" t="s">
+      <c r="E29" s="66" t="s">
         <v>129</v>
       </c>
-      <c r="F29" s="72">
+      <c r="F29" s="67">
         <v>0.41</v>
       </c>
-      <c r="O29" s="44"/>
-      <c r="P29" s="44"/>
-      <c r="Q29" s="44"/>
-      <c r="R29" s="44"/>
-      <c r="S29" s="44"/>
-      <c r="T29" s="44"/>
-      <c r="U29" s="44"/>
+      <c r="O29" s="42"/>
+      <c r="P29" s="42"/>
+      <c r="Q29" s="42"/>
+      <c r="R29" s="42"/>
+      <c r="S29" s="42"/>
+      <c r="T29" s="42"/>
+      <c r="U29" s="42"/>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A30" s="12" t="s">
@@ -12435,13 +12412,13 @@
         <f>80*4</f>
         <v>320</v>
       </c>
-      <c r="O30" s="44"/>
-      <c r="P30" s="44"/>
-      <c r="Q30" s="44"/>
-      <c r="R30" s="44"/>
-      <c r="S30" s="44"/>
-      <c r="T30" s="44"/>
-      <c r="U30" s="44"/>
+      <c r="O30" s="42"/>
+      <c r="P30" s="42"/>
+      <c r="Q30" s="42"/>
+      <c r="R30" s="42"/>
+      <c r="S30" s="42"/>
+      <c r="T30" s="42"/>
+      <c r="U30" s="42"/>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A31" s="12" t="s">
@@ -12474,7 +12451,7 @@
       <c r="B33" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="63">
+      <c r="C33" s="59">
         <v>0.12</v>
       </c>
     </row>
@@ -12524,7 +12501,7 @@
       <c r="O37" s="4">
         <v>12</v>
       </c>
-      <c r="P37" s="70">
+      <c r="P37" s="4">
         <v>13</v>
       </c>
       <c r="Q37" s="4">
@@ -12533,52 +12510,52 @@
     </row>
     <row r="38" spans="1:27" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
-      <c r="B38" s="39" t="s">
+      <c r="B38" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="C38" s="39" t="s">
+      <c r="C38" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="D38" s="39" t="s">
+      <c r="D38" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="E38" s="39" t="s">
+      <c r="E38" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="F38" s="39" t="s">
+      <c r="F38" s="38" t="s">
         <v>108</v>
       </c>
       <c r="G38" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H38" s="40" t="s">
+      <c r="H38" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="I38" s="40" t="s">
+      <c r="I38" s="39" t="s">
         <v>88</v>
       </c>
       <c r="J38" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="K38" s="40" t="s">
+      <c r="K38" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="L38" s="40" t="s">
+      <c r="L38" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="M38" s="40" t="s">
+      <c r="M38" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="N38" s="40" t="s">
+      <c r="N38" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="O38" s="40" t="s">
+      <c r="O38" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="P38" s="40" t="s">
+      <c r="P38" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="Q38" s="40" t="s">
+      <c r="Q38" s="39" t="s">
         <v>140</v>
       </c>
     </row>
@@ -12587,16 +12564,16 @@
       <c r="B39" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="C39" s="38" t="s">
+      <c r="C39" s="37" t="s">
         <v>1</v>
       </c>
       <c r="D39" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="E39" s="39" t="s">
+      <c r="E39" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="F39" s="39" t="s">
+      <c r="F39" s="38" t="s">
         <v>96</v>
       </c>
       <c r="G39" s="3" t="s">
@@ -12617,10 +12594,10 @@
       <c r="L39" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="M39" s="56" t="s">
+      <c r="M39" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="N39" s="59"/>
+      <c r="N39" s="55"/>
       <c r="O39" s="3" t="s">
         <v>131</v>
       </c>
@@ -12635,16 +12612,16 @@
       <c r="A40" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B40" s="41">
+      <c r="B40" s="40">
         <v>31</v>
       </c>
-      <c r="C40" s="42">
+      <c r="C40" s="40">
         <v>12.53</v>
       </c>
       <c r="D40" s="7">
         <v>7.8</v>
       </c>
-      <c r="E40" s="39">
+      <c r="E40" s="38">
         <v>9</v>
       </c>
       <c r="F40" s="7">
@@ -12652,57 +12629,57 @@
       </c>
       <c r="G40" s="36">
         <f t="shared" ref="G40:G51" si="0">4187*$D$11*B40*($D$8-C40)*10^-6</f>
-        <v>4830.5874545599991</v>
+        <v>283.42732513999999</v>
       </c>
       <c r="H40" s="36">
         <f>+$P$20*$P$18*(100-E40)*3600*F40*B40*$H$17/(G40*10^6)</f>
-        <v>0.87813484963608401</v>
+        <v>35.139701354160543</v>
       </c>
       <c r="I40" s="36">
         <f>$P$16*$P$18*$P$17*D40*10^6*B40*$H$17/(G40*10^6)</f>
-        <v>0.35466791123773439</v>
-      </c>
-      <c r="J40" s="52">
+        <v>14.192495020511695</v>
+      </c>
+      <c r="J40" s="50">
         <f>1.029*I40-0.065*H40-0.245*I40^2+0.0018*H40^2+0.0215*I40^3</f>
-        <v>0.27940333663967148</v>
-      </c>
-      <c r="K40" s="47">
+        <v>26.656175602667901</v>
+      </c>
+      <c r="K40" s="45">
         <f>+J40*G40</f>
-        <v>1349.6822527338013</v>
-      </c>
-      <c r="L40" s="51">
+        <v>7555.0885495262901</v>
+      </c>
+      <c r="L40" s="49">
         <f>+K40/(D40*$H$17*B40)</f>
-        <v>0.48963267189565157</v>
-      </c>
-      <c r="M40" s="57">
+        <v>1.1673465085617938</v>
+      </c>
+      <c r="M40" s="2">
         <f>+(G40-K40)*0.77*0.2777</f>
-        <v>744.3184784012941</v>
-      </c>
-      <c r="N40" s="58">
+        <v>-1554.8920479492961</v>
+      </c>
+      <c r="N40" s="54">
         <f>+G40*0.277*$C$29-$C$33*(($C$30+$C$32*$L$18)*$H$17+$C$31)</f>
-        <v>222.75255828173385</v>
+        <v>-1284.5158774477554</v>
       </c>
       <c r="O40" s="2">
         <f>+(G40-K40)*$F$29</f>
-        <v>1427.171132748741</v>
+        <v>-2981.3811019983787</v>
       </c>
       <c r="P40" s="2">
         <f>+(($C$30+$C$32*$L$18)*$H$17+$C$31)</f>
-        <v>6263.5999999999995</v>
+        <v>11180.720000000001</v>
       </c>
       <c r="Q40" s="2">
         <f>+K40*J40*$C$29*0.277</f>
-        <v>76.066523700886606</v>
+        <v>40622.611861339057</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B41" s="41">
+      <c r="B41" s="40">
         <v>28</v>
       </c>
-      <c r="C41" s="42">
+      <c r="C41" s="40">
         <v>12.58</v>
       </c>
       <c r="D41" s="7">
@@ -12716,57 +12693,57 @@
       </c>
       <c r="G41" s="36">
         <f t="shared" si="0"/>
-        <v>4358.51559808</v>
+        <v>255.72923152000001</v>
       </c>
       <c r="H41" s="36">
         <f>+$P$20*$P$18*(100-E41)*3600*F41*B41*$H$17/(G41*10^6)</f>
-        <v>0.76072565902496536</v>
+        <v>30.44142079278868</v>
       </c>
       <c r="I41" s="36">
         <f t="shared" ref="I41:I51" si="1">$P$16*$P$18*$P$17*D41*10^6*B41*$H$17/(G41*10^6)</f>
-        <v>0.49159644329915098</v>
-      </c>
-      <c r="J41" s="52">
+        <v>19.671867266694395</v>
+      </c>
+      <c r="J41" s="50">
         <f t="shared" ref="J41:J51" si="2">1.029*I41-0.065*H41-0.245*I41^2+0.0018*H41^2+0.0215*I41^3</f>
-        <v>0.40079306559466721</v>
-      </c>
-      <c r="K41" s="47">
+        <v>88.793316198745231</v>
+      </c>
+      <c r="K41" s="45">
         <f t="shared" ref="K41:K51" si="3">+J41*G41</f>
-        <v>1746.8628279966576</v>
-      </c>
-      <c r="L41" s="51">
+        <v>22707.046515617487</v>
+      </c>
+      <c r="L41" s="49">
         <f t="shared" ref="L41:L51" si="4">+K41/(D41*$H$17*B41)</f>
-        <v>0.50672480622756477</v>
-      </c>
-      <c r="M41" s="57">
+        <v>2.8054038532381416</v>
+      </c>
+      <c r="M41" s="2">
         <f t="shared" ref="M41:M51" si="5">+(G41-K41)*0.77*0.2777</f>
-        <v>558.44710017415093</v>
-      </c>
-      <c r="N41" s="58">
+        <v>-4800.7427235412815</v>
+      </c>
+      <c r="N41" s="54">
         <f>+G41*0.277*$C$29-$C$33*(($C$30+$C$32*$L$18)*$H$17+$C$31)</f>
-        <v>127.5302832105541</v>
+        <v>-1290.1028986891768</v>
       </c>
       <c r="O41" s="2">
         <f>+(G41-K41)*$F$29</f>
-        <v>1070.7776357341702</v>
+        <v>-9205.0400864799685</v>
       </c>
       <c r="P41" s="2">
         <f t="shared" ref="P41:P51" si="6">+(($C$30+$C$32*$L$18)*$H$17+$C$31)</f>
-        <v>6263.5999999999995</v>
+        <v>11180.720000000001</v>
       </c>
       <c r="Q41" s="2">
         <f t="shared" ref="Q41:Q51" si="7">+K41*J41*$C$29*0.277</f>
-        <v>141.2243049526318</v>
+        <v>406697.37504136702</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B42" s="41">
+      <c r="B42" s="40">
         <v>31</v>
       </c>
-      <c r="C42" s="42">
+      <c r="C42" s="40">
         <v>12.55</v>
       </c>
       <c r="D42" s="7">
@@ -12780,57 +12757,57 @@
       </c>
       <c r="G42" s="36">
         <f t="shared" si="0"/>
-        <v>4828.5522375999999</v>
+        <v>283.30791190000002</v>
       </c>
       <c r="H42" s="36">
         <f>+$P$20*$P$18*(100-E42)*3600*F42*B42*$H$17/(G42*10^6)</f>
-        <v>0.9448755487983912</v>
+        <v>37.810416720602568</v>
       </c>
       <c r="I42" s="36">
         <f t="shared" si="1"/>
-        <v>0.69143904068012163</v>
-      </c>
-      <c r="J42" s="52">
+        <v>27.668827178622809</v>
+      </c>
+      <c r="J42" s="50">
         <f t="shared" si="2"/>
-        <v>0.54165656325905442</v>
-      </c>
-      <c r="K42" s="47">
+        <v>296.44224210586577</v>
+      </c>
+      <c r="K42" s="45">
         <f t="shared" si="3"/>
-        <v>2615.4170105352332</v>
-      </c>
-      <c r="L42" s="51">
+        <v>83984.432609967102</v>
+      </c>
+      <c r="L42" s="49">
         <f t="shared" si="4"/>
-        <v>0.48688995072961039</v>
-      </c>
-      <c r="M42" s="57">
+        <v>6.6590156735636956</v>
+      </c>
+      <c r="M42" s="2">
         <f>+(G42-K42)*0.77*0.2777</f>
-        <v>473.23249246803198</v>
-      </c>
-      <c r="N42" s="58">
+        <v>-17897.72779306299</v>
+      </c>
+      <c r="N42" s="54">
         <f t="shared" ref="N42:N51" si="8">+G42*0.277*$C$29-$C$33*(($C$30+$C$32*$L$18)*$H$17+$C$31)</f>
-        <v>222.34203181942871</v>
+        <v>-1284.5399644595743</v>
       </c>
       <c r="O42" s="2">
         <f t="shared" ref="O42:O51" si="9">+(G42-K42)*$F$29</f>
-        <v>907.38544309655424</v>
+        <v>-34317.461126207505</v>
       </c>
       <c r="P42" s="2">
         <f t="shared" si="6"/>
-        <v>6263.5999999999995</v>
+        <v>11180.720000000001</v>
       </c>
       <c r="Q42" s="2">
         <f t="shared" si="7"/>
-        <v>285.7560260239631</v>
+        <v>5021914.6284177918</v>
       </c>
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="41">
+      <c r="B43" s="40">
         <v>30</v>
       </c>
-      <c r="C43" s="42">
+      <c r="C43" s="40">
         <v>12.35</v>
       </c>
       <c r="D43" s="7">
@@ -12844,58 +12821,58 @@
       </c>
       <c r="G43" s="36">
         <f t="shared" si="0"/>
-        <v>4692.4881359999999</v>
+        <v>275.32455899999997</v>
       </c>
       <c r="H43" s="36">
         <f>+$P$20*$P$18*(100-E43)*3600*F43*B43*$H$17/(G43*10^6)</f>
-        <v>0.50470249389246391</v>
+        <v>20.196322826079601</v>
       </c>
       <c r="I43" s="36">
         <f>$P$16*$P$18*$P$17*D43*10^6*B43*$H$17/(G43*10^6)</f>
-        <v>0.83802186431356362</v>
-      </c>
-      <c r="J43" s="52">
+        <v>33.53452838415334</v>
+      </c>
+      <c r="J43" s="50">
         <f t="shared" si="2"/>
-        <v>0.67057190303949721</v>
-      </c>
-      <c r="K43" s="47">
+        <v>569.21262868099905</v>
+      </c>
+      <c r="K43" s="45">
         <f t="shared" si="3"/>
-        <v>3146.6506993477828</v>
-      </c>
-      <c r="L43" s="51">
+        <v>156718.21596882679</v>
+      </c>
+      <c r="L43" s="49">
         <f>+K43/(D43*$H$17*B43)</f>
-        <v>0.4973369210285733</v>
-      </c>
-      <c r="M43" s="57">
+        <v>10.54977075049675</v>
+      </c>
+      <c r="M43" s="2">
         <f t="shared" si="5"/>
-        <v>330.54487324190694</v>
-      </c>
-      <c r="N43" s="58">
+        <v>-33452.027027271855</v>
+      </c>
+      <c r="N43" s="54">
         <f>+G43*0.277*$C$29-$C$33*(($C$30+$C$32*$L$18)*$H$17+$C$31)</f>
-        <v>194.89635139595055</v>
+        <v>-1286.1502977497275</v>
       </c>
       <c r="O43" s="2">
         <f t="shared" si="9"/>
-        <v>633.79334902740902</v>
+        <v>-64141.585478028981</v>
       </c>
       <c r="P43" s="2">
         <f t="shared" si="6"/>
-        <v>6263.5999999999995</v>
+        <v>11180.720000000001</v>
       </c>
       <c r="Q43" s="2">
         <f t="shared" si="7"/>
-        <v>425.62225859671065</v>
-      </c>
-      <c r="AA43" s="46"/>
+        <v>17993864.662067447</v>
+      </c>
+      <c r="AA43" s="44"/>
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B44" s="41">
+      <c r="B44" s="40">
         <v>31</v>
       </c>
-      <c r="C44" s="42">
+      <c r="C44" s="40">
         <v>11.37</v>
       </c>
       <c r="D44" s="7">
@@ -12909,57 +12886,57 @@
       </c>
       <c r="G44" s="36">
         <f t="shared" si="0"/>
-        <v>4948.6300382400004</v>
+        <v>290.35329306</v>
       </c>
       <c r="H44" s="36">
         <f t="shared" ref="H44:H51" si="10">+$P$20*$P$18*(100-E44)*3600*F44*B44*$H$17/(G44*10^6)</f>
-        <v>0.77241132923475564</v>
+        <v>30.909037994708662</v>
       </c>
       <c r="I44" s="36">
         <f t="shared" si="1"/>
-        <v>0.97204500189122978</v>
-      </c>
-      <c r="J44" s="52">
+        <v>38.897637513666282</v>
+      </c>
+      <c r="J44" s="50">
         <f t="shared" si="2"/>
-        <v>0.73935480972942569</v>
-      </c>
-      <c r="K44" s="47">
+        <v>934.38743905617639</v>
+      </c>
+      <c r="K44" s="45">
         <f t="shared" si="3"/>
-        <v>3658.793420344256</v>
-      </c>
-      <c r="L44" s="51">
+        <v>271302.46992386086</v>
+      </c>
+      <c r="L44" s="49">
         <f>+K44/(D44*$H$17*B44)</f>
-        <v>0.4727453104408133</v>
-      </c>
-      <c r="M44" s="57">
+        <v>14.930160116219582</v>
+      </c>
+      <c r="M44" s="2">
         <f>+(G44-K44)*0.77*0.2777</f>
-        <v>275.80447416802917</v>
-      </c>
-      <c r="N44" s="58">
+        <v>-57950.249887047525</v>
+      </c>
+      <c r="N44" s="54">
         <f>+G44*0.277*$C$29-$C$33*(($C$30+$C$32*$L$18)*$H$17+$C$31)</f>
-        <v>246.56309309544406</v>
+        <v>-1283.1188307622572</v>
       </c>
       <c r="O44" s="2">
         <f t="shared" si="9"/>
-        <v>528.83301333725524</v>
+        <v>-111114.96781862836</v>
       </c>
       <c r="P44" s="2">
         <f t="shared" si="6"/>
-        <v>6263.5999999999995</v>
+        <v>11180.720000000001</v>
       </c>
       <c r="Q44" s="2">
         <f t="shared" si="7"/>
-        <v>545.65889037016461</v>
+        <v>51134166.688962281</v>
       </c>
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B45" s="41">
+      <c r="B45" s="40">
         <v>30</v>
       </c>
-      <c r="C45" s="42">
+      <c r="C45" s="40">
         <v>10.35</v>
       </c>
       <c r="D45" s="7">
@@ -12973,57 +12950,57 @@
       </c>
       <c r="G45" s="36">
         <f t="shared" si="0"/>
-        <v>4889.4446159999998</v>
+        <v>286.88067899999999</v>
       </c>
       <c r="H45" s="36">
         <f t="shared" si="10"/>
-        <v>0.61353796958112405</v>
+        <v>24.551515099820296</v>
       </c>
       <c r="I45" s="36">
         <f t="shared" si="1"/>
-        <v>1.07814942162339</v>
-      </c>
-      <c r="J45" s="52">
+        <v>43.143543052308509</v>
+      </c>
+      <c r="J45" s="50">
         <f t="shared" si="2"/>
-        <v>0.81236866801122454</v>
-      </c>
-      <c r="K45" s="47">
+        <v>1314.4260821461173</v>
+      </c>
+      <c r="K45" s="45">
         <f t="shared" si="3"/>
-        <v>3972.0316100145728</v>
-      </c>
-      <c r="L45" s="51">
+        <v>377083.4469413879</v>
+      </c>
+      <c r="L45" s="49">
         <f t="shared" si="4"/>
-        <v>0.46831159333316513</v>
-      </c>
-      <c r="M45" s="57">
+        <v>18.935686691137402</v>
+      </c>
+      <c r="M45" s="2">
         <f t="shared" si="5"/>
-        <v>196.16950565685787</v>
-      </c>
-      <c r="N45" s="58">
+        <v>-80570.032967320134</v>
+      </c>
+      <c r="N45" s="54">
         <f>+G45*0.277*$C$29-$C$33*(($C$30+$C$32*$L$18)*$H$17+$C$31)</f>
-        <v>234.62471871582238</v>
+        <v>-1283.8192966059594</v>
       </c>
       <c r="O45" s="2">
         <f t="shared" si="9"/>
-        <v>376.13933245402501</v>
+        <v>-154486.59216757905</v>
       </c>
       <c r="P45" s="2">
         <f t="shared" si="6"/>
-        <v>6263.5999999999995</v>
+        <v>11180.720000000001</v>
       </c>
       <c r="Q45" s="2">
         <f t="shared" si="7"/>
-        <v>650.87307250928086</v>
+        <v>99977916.092156395</v>
       </c>
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B46" s="41">
+      <c r="B46" s="40">
         <v>31</v>
       </c>
-      <c r="C46" s="42">
+      <c r="C46" s="40">
         <v>9.93</v>
       </c>
       <c r="D46" s="7">
@@ -13037,47 +13014,47 @@
       </c>
       <c r="G46" s="36">
         <f t="shared" si="0"/>
-        <v>5095.1656593599992</v>
+        <v>298.95104633999995</v>
       </c>
       <c r="H46" s="36">
         <f t="shared" si="10"/>
-        <v>0.66785828977726092</v>
+        <v>26.725212943546303</v>
       </c>
       <c r="I46" s="36">
         <f>$P$16*$P$18*$P$17*D46*10^6*B46*$H$17/(G46*10^6)</f>
-        <v>1.1510129137933951</v>
-      </c>
-      <c r="J46" s="52">
+        <v>46.059269897150472</v>
+      </c>
+      <c r="J46" s="50">
         <f t="shared" si="2"/>
-        <v>0.84998612505628424</v>
-      </c>
-      <c r="K46" s="47">
+        <v>1628.0103737630288</v>
+      </c>
+      <c r="K46" s="45">
         <f>+J46*G46</f>
-        <v>4330.8201153192531</v>
-      </c>
-      <c r="L46" s="51">
+        <v>486695.40468883188</v>
+      </c>
+      <c r="L46" s="49">
         <f t="shared" si="4"/>
-        <v>0.45897849624718395</v>
-      </c>
-      <c r="M46" s="57">
+        <v>21.968520861134785</v>
+      </c>
+      <c r="M46" s="2">
         <f t="shared" si="5"/>
-        <v>163.43924333668869</v>
-      </c>
-      <c r="N46" s="58">
+        <v>-104005.6672859204</v>
+      </c>
+      <c r="N46" s="54">
         <f t="shared" si="8"/>
-        <v>276.12099838142865</v>
+        <v>-1281.3845659112937</v>
       </c>
       <c r="O46" s="2">
         <f t="shared" si="9"/>
-        <v>313.38167305670589</v>
+        <v>-199422.54599342166</v>
       </c>
       <c r="P46" s="2">
         <f t="shared" si="6"/>
-        <v>6263.5999999999995</v>
+        <v>11180.720000000001</v>
       </c>
       <c r="Q46" s="2">
         <f t="shared" si="7"/>
-        <v>742.52729950292849</v>
+        <v>159825053.05923805</v>
       </c>
       <c r="X46" s="8"/>
       <c r="Y46" s="8"/>
@@ -13086,10 +13063,10 @@
       <c r="A47" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B47" s="41">
+      <c r="B47" s="40">
         <v>31</v>
       </c>
-      <c r="C47" s="42">
+      <c r="C47" s="40">
         <v>10.96</v>
       </c>
       <c r="D47" s="7">
@@ -13103,47 +13080,47 @@
       </c>
       <c r="G47" s="36">
         <f t="shared" si="0"/>
-        <v>4990.3519859199996</v>
+        <v>292.80126447999999</v>
       </c>
       <c r="H47" s="36">
         <f t="shared" si="10"/>
-        <v>0.767121179451282</v>
+        <v>30.697345811455623</v>
       </c>
       <c r="I47" s="36">
         <f t="shared" si="1"/>
-        <v>1.0387428985661729</v>
-      </c>
-      <c r="J47" s="52">
+        <v>41.566640083236841</v>
+      </c>
+      <c r="J47" s="50">
         <f t="shared" si="2"/>
-        <v>0.77980803504891893</v>
-      </c>
-      <c r="K47" s="47">
+        <v>1163.2576477464372</v>
+      </c>
+      <c r="K47" s="45">
         <f t="shared" si="3"/>
-        <v>3891.5165763427453</v>
-      </c>
-      <c r="L47" s="51">
+        <v>340603.31017618719</v>
+      </c>
+      <c r="L47" s="49">
         <f t="shared" si="4"/>
-        <v>0.46659527499721187</v>
-      </c>
-      <c r="M47" s="57">
+        <v>17.393688733098266</v>
+      </c>
+      <c r="M47" s="2">
         <f t="shared" si="5"/>
-        <v>234.96287679449469</v>
-      </c>
-      <c r="N47" s="58">
+        <v>-72768.255810081435</v>
+      </c>
+      <c r="N47" s="54">
         <f t="shared" si="8"/>
-        <v>254.97888557270358</v>
+        <v>-1282.6250470199691</v>
       </c>
       <c r="O47" s="2">
         <f t="shared" si="9"/>
-        <v>450.5225179266742</v>
+        <v>-139527.30865379993</v>
       </c>
       <c r="P47" s="2">
         <f t="shared" si="6"/>
-        <v>6263.5999999999995</v>
+        <v>11180.720000000001</v>
       </c>
       <c r="Q47" s="2">
         <f t="shared" si="7"/>
-        <v>612.12065482191554</v>
+        <v>79919953.858459353</v>
       </c>
       <c r="X47" s="8"/>
       <c r="Y47" s="8"/>
@@ -13152,10 +13129,10 @@
       <c r="A48" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B48" s="41">
+      <c r="B48" s="40">
         <v>30</v>
       </c>
-      <c r="C48" s="42">
+      <c r="C48" s="40">
         <v>12.09</v>
       </c>
       <c r="D48" s="7">
@@ -13169,60 +13146,60 @@
       </c>
       <c r="G48" s="36">
         <f t="shared" si="0"/>
-        <v>4718.092478399999</v>
+        <v>276.82685459999993</v>
       </c>
       <c r="H48" s="36">
         <f t="shared" si="10"/>
-        <v>0.81748350093128608</v>
+        <v>32.712659219234588</v>
       </c>
       <c r="I48" s="36">
         <f t="shared" si="1"/>
-        <v>0.84698984750616491</v>
-      </c>
-      <c r="J48" s="52">
+        <v>33.89339382636615</v>
+      </c>
+      <c r="J48" s="50">
         <f t="shared" si="2"/>
-        <v>0.65692194359630129</v>
-      </c>
-      <c r="K48" s="47">
+        <v>590.34159399436214</v>
+      </c>
+      <c r="K48" s="45">
         <f t="shared" si="3"/>
-        <v>3099.4184809776175</v>
-      </c>
-      <c r="L48" s="51">
+        <v>163422.40660500948</v>
+      </c>
+      <c r="L48" s="49">
         <f t="shared" si="4"/>
-        <v>0.48205463496603485</v>
-      </c>
-      <c r="M48" s="57">
+        <v>10.825526417088994</v>
+      </c>
+      <c r="M48" s="2">
         <f t="shared" si="5"/>
-        <v>346.11944219483041</v>
-      </c>
-      <c r="N48" s="58">
+        <v>-34885.256172450318</v>
+      </c>
+      <c r="N48" s="54">
         <f t="shared" si="8"/>
-        <v>200.06103914753362</v>
+        <v>-1285.8472676010376</v>
       </c>
       <c r="O48" s="2">
         <f t="shared" si="9"/>
-        <v>663.65633894317637</v>
+        <v>-66889.68769766789</v>
       </c>
       <c r="P48" s="2">
         <f t="shared" si="6"/>
-        <v>6263.5999999999995</v>
+        <v>11180.720000000001</v>
       </c>
       <c r="Q48" s="2">
         <f t="shared" si="7"/>
-        <v>410.69974299628706</v>
+        <v>19460116.192237239</v>
       </c>
       <c r="X48" s="8"/>
       <c r="Y48" s="8"/>
-      <c r="Z48" s="48"/>
+      <c r="Z48" s="46"/>
     </row>
     <row r="49" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B49" s="41">
+      <c r="B49" s="40">
         <v>31</v>
       </c>
-      <c r="C49" s="42">
+      <c r="C49" s="40">
         <v>13.21</v>
       </c>
       <c r="D49" s="7">
@@ -13236,60 +13213,60 @@
       </c>
       <c r="G49" s="36">
         <f t="shared" si="0"/>
-        <v>4761.3900779200003</v>
+        <v>279.36727497999999</v>
       </c>
       <c r="H49" s="36">
         <f t="shared" si="10"/>
-        <v>1.0034826603089917</v>
+        <v>40.155656061195835</v>
       </c>
       <c r="I49" s="36">
         <f t="shared" si="1"/>
-        <v>0.59509073856805028</v>
-      </c>
-      <c r="J49" s="52">
+        <v>23.813325300293194</v>
+      </c>
+      <c r="J49" s="50">
         <f t="shared" si="2"/>
-        <v>0.46670291173743006</v>
-      </c>
-      <c r="K49" s="47">
+        <v>176.19747455820703</v>
+      </c>
+      <c r="K49" s="45">
         <f t="shared" si="3"/>
-        <v>2222.1546132829731</v>
-      </c>
-      <c r="L49" s="51">
+        <v>49223.808325684178</v>
+      </c>
+      <c r="L49" s="49">
         <f t="shared" si="4"/>
-        <v>0.48743646729291396</v>
-      </c>
-      <c r="M49" s="57">
+        <v>4.5987556372845146</v>
+      </c>
+      <c r="M49" s="2">
         <f t="shared" si="5"/>
-        <v>542.96218016787088</v>
-      </c>
-      <c r="N49" s="58">
+        <v>-10465.740885431023</v>
+      </c>
+      <c r="N49" s="54">
         <f t="shared" si="8"/>
-        <v>208.79465856335253</v>
+        <v>-1285.3348358495994</v>
       </c>
       <c r="O49" s="2">
         <f t="shared" si="9"/>
-        <v>1041.0865405011812</v>
+        <v>-20067.220830788712</v>
       </c>
       <c r="P49" s="2">
         <f t="shared" si="6"/>
-        <v>6263.5999999999995</v>
+        <v>11180.720000000001</v>
       </c>
       <c r="Q49" s="2">
         <f t="shared" si="7"/>
-        <v>209.19207469890335</v>
+        <v>1749465.3047024207</v>
       </c>
       <c r="X49" s="8"/>
       <c r="Y49" s="8"/>
-      <c r="Z49" s="49"/>
+      <c r="Z49" s="47"/>
     </row>
     <row r="50" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B50" s="41">
+      <c r="B50" s="40">
         <v>30</v>
       </c>
-      <c r="C50" s="42">
+      <c r="C50" s="40">
         <v>13.27</v>
       </c>
       <c r="D50" s="7">
@@ -13303,57 +13280,57 @@
       </c>
       <c r="G50" s="36">
         <f t="shared" si="0"/>
-        <v>4601.8881552000003</v>
+        <v>270.00874379999999</v>
       </c>
       <c r="H50" s="36">
         <f t="shared" si="10"/>
-        <v>1.066037634412432</v>
+        <v>42.658874227657513</v>
       </c>
       <c r="I50" s="36">
         <f t="shared" si="1"/>
-        <v>0.44342684150073908</v>
-      </c>
-      <c r="J50" s="52">
+        <v>17.744298371955161</v>
+      </c>
+      <c r="J50" s="50">
         <f t="shared" si="2"/>
-        <v>0.34274023656743219</v>
-      </c>
-      <c r="K50" s="47">
+        <v>61.740826800200509</v>
+      </c>
+      <c r="K50" s="45">
         <f t="shared" si="3"/>
-        <v>1577.2522349701121</v>
-      </c>
-      <c r="L50" s="51">
+        <v>16670.563085495512</v>
+      </c>
+      <c r="L50" s="49">
         <f t="shared" si="4"/>
-        <v>0.48040090002744651</v>
-      </c>
-      <c r="M50" s="57">
+        <v>2.1625905851608374</v>
+      </c>
+      <c r="M50" s="2">
         <f t="shared" si="5"/>
-        <v>646.75487418683679</v>
-      </c>
-      <c r="N50" s="58">
+        <v>-3506.9141343304095</v>
+      </c>
+      <c r="N50" s="54">
         <f t="shared" si="8"/>
-        <v>176.62130242880937</v>
+        <v>-1287.2225582758608</v>
       </c>
       <c r="O50" s="2">
         <f t="shared" si="9"/>
-        <v>1240.1007272942541</v>
+        <v>-6724.2272800951596</v>
       </c>
       <c r="P50" s="2">
         <f t="shared" si="6"/>
-        <v>6263.5999999999995</v>
+        <v>11180.720000000001</v>
       </c>
       <c r="Q50" s="2">
         <f t="shared" si="7"/>
-        <v>109.04272279603896</v>
+        <v>207612.3355160573</v>
       </c>
     </row>
     <row r="51" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B51" s="41">
+      <c r="B51" s="40">
         <v>31</v>
       </c>
-      <c r="C51" s="42">
+      <c r="C51" s="40">
         <v>13.24</v>
       </c>
       <c r="D51" s="7">
@@ -13367,47 +13344,47 @@
       </c>
       <c r="G51" s="36">
         <f t="shared" si="0"/>
-        <v>4758.3372524799997</v>
+        <v>279.18815511999998</v>
       </c>
       <c r="H51" s="36">
         <f t="shared" si="10"/>
-        <v>1.1143354713490403</v>
+        <v>44.591574617247673</v>
       </c>
       <c r="I51" s="36">
         <f t="shared" si="1"/>
-        <v>0.32774069662826077</v>
-      </c>
-      <c r="J51" s="52">
+        <v>13.114967713551469</v>
+      </c>
+      <c r="J51" s="50">
         <f t="shared" si="2"/>
-        <v>0.24148897277466005</v>
-      </c>
-      <c r="K51" s="47">
+        <v>20.535223303826804</v>
+      </c>
+      <c r="K51" s="45">
         <f t="shared" si="3"/>
-        <v>1149.0859752167935</v>
-      </c>
-      <c r="L51" s="51">
+        <v>5733.1911091726361</v>
+      </c>
+      <c r="L51" s="49">
         <f t="shared" si="4"/>
-        <v>0.45796008800497134</v>
-      </c>
-      <c r="M51" s="57">
+        <v>0.97317938925559466</v>
+      </c>
+      <c r="M51" s="2">
         <f t="shared" si="5"/>
-        <v>771.7625913659142</v>
-      </c>
-      <c r="N51" s="58">
+        <v>-1166.2239976621211</v>
+      </c>
+      <c r="N51" s="54">
         <f t="shared" si="8"/>
-        <v>208.17886886989436</v>
+        <v>-1285.3709663673276</v>
       </c>
       <c r="O51" s="2">
         <f t="shared" si="9"/>
-        <v>1479.7930236779146</v>
+        <v>-2236.1412111615805</v>
       </c>
       <c r="P51" s="2">
         <f t="shared" si="6"/>
-        <v>6263.5999999999995</v>
+        <v>11180.720000000001</v>
       </c>
       <c r="Q51" s="2">
         <f t="shared" si="7"/>
-        <v>55.973217467155024</v>
+        <v>23747.959094414793</v>
       </c>
     </row>
     <row r="52" spans="1:26" x14ac:dyDescent="0.3">
@@ -13415,43 +13392,91 @@
       <c r="C52" s="34"/>
       <c r="D52" s="34"/>
       <c r="E52" s="34"/>
-      <c r="G52" s="43">
+      <c r="G52" s="41">
         <f>+SUM(G40:G51)</f>
-        <v>57473.443689760003</v>
+        <v>3372.1663389399996</v>
       </c>
       <c r="H52" s="34"/>
-      <c r="J52" s="53">
+      <c r="J52" s="51">
         <f>+K52/G52</f>
-        <v>0.56999691881902259</v>
-      </c>
-      <c r="K52" s="50">
+        <v>587.66359227774353</v>
+      </c>
+      <c r="K52" s="48">
         <f>+SUM(K40:K51)</f>
-        <v>32759.685817081798</v>
-      </c>
-      <c r="L52" s="54">
+        <v>1981699.3844995671</v>
+      </c>
+      <c r="L52" s="52">
         <f>+K52/(AVERAGE(D40:D51)*365*H17)</f>
-        <v>0.47787750649530608</v>
+        <v>12.312209966714494</v>
       </c>
       <c r="M52" s="8">
         <f>+SUM(M40:M51)</f>
-        <v>5284.5181321569062</v>
+        <v>-423023.73073206877</v>
       </c>
       <c r="N52" s="5">
         <f>+SUM(N40:N51)</f>
-        <v>2573.4647894826562</v>
+        <v>-15420.032406739536</v>
       </c>
       <c r="O52" s="31">
         <f>+SUM(O40:O51)</f>
-        <v>10132.64072779806</v>
+        <v>-811114.15944585716</v>
       </c>
       <c r="P52" s="2"/>
       <c r="Q52" s="2">
         <f>+SUM(Q40:Q51)</f>
-        <v>4264.7567884368664</v>
+        <v>435761130.76775414</v>
       </c>
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="L53" s="82"/>
+      <c r="L53" s="77"/>
+    </row>
+    <row r="56" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="N56">
+        <v>0</v>
+      </c>
+      <c r="O56">
+        <v>-4000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="N57">
+        <v>1</v>
+      </c>
+      <c r="O57">
+        <v>2573.4647894826562</v>
+      </c>
+    </row>
+    <row r="58" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="N58">
+        <v>2</v>
+      </c>
+      <c r="O58">
+        <v>2573.4647894826562</v>
+      </c>
+    </row>
+    <row r="59" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="N59">
+        <v>3</v>
+      </c>
+      <c r="O59">
+        <v>2573.4647894826562</v>
+      </c>
+    </row>
+    <row r="60" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="N60">
+        <v>4</v>
+      </c>
+      <c r="O60">
+        <v>2573.4647894826562</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="N61">
+        <v>5</v>
+      </c>
+      <c r="O61">
+        <v>2573.4647894826562</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="24">
@@ -13529,44 +13554,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B1" s="103"/>
-      <c r="C1" s="104" t="s">
+      <c r="B1" s="98"/>
+      <c r="C1" s="99" t="s">
         <v>155</v>
       </c>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104" t="s">
+      <c r="D1" s="99"/>
+      <c r="E1" s="99" t="s">
         <v>156</v>
       </c>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B2" s="103"/>
-      <c r="C2" s="79" t="s">
+      <c r="B2" s="98"/>
+      <c r="C2" s="74" t="s">
         <v>153</v>
       </c>
-      <c r="D2" s="79" t="s">
+      <c r="D2" s="74" t="s">
         <v>154</v>
       </c>
-      <c r="E2" s="105" t="s">
+      <c r="E2" s="100" t="s">
         <v>161</v>
       </c>
-      <c r="F2" s="105"/>
-      <c r="G2" s="79" t="s">
+      <c r="F2" s="100"/>
+      <c r="G2" s="74" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="101">
+      <c r="A3" s="96">
         <v>1</v>
       </c>
-      <c r="B3" s="102" t="s">
+      <c r="B3" s="97" t="s">
         <v>157</v>
       </c>
-      <c r="C3" s="103">
+      <c r="C3" s="98">
         <v>7.38</v>
       </c>
-      <c r="D3" s="103">
+      <c r="D3" s="98">
         <v>4.46</v>
       </c>
       <c r="E3" s="2">
@@ -13575,32 +13600,32 @@
       <c r="F3" s="2">
         <v>1872.23</v>
       </c>
-      <c r="G3" s="103">
+      <c r="G3" s="98">
         <v>1589.45</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="101"/>
-      <c r="B4" s="102"/>
-      <c r="C4" s="103"/>
-      <c r="D4" s="103"/>
-      <c r="E4" s="103">
+      <c r="A4" s="96"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="98">
         <v>2657.66</v>
       </c>
-      <c r="F4" s="103"/>
-      <c r="G4" s="103"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="98"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="101">
+      <c r="A5" s="96">
         <v>2</v>
       </c>
-      <c r="B5" s="102" t="s">
+      <c r="B5" s="97" t="s">
         <v>158</v>
       </c>
-      <c r="C5" s="103">
+      <c r="C5" s="98">
         <v>6.68</v>
       </c>
-      <c r="D5" s="103">
+      <c r="D5" s="98">
         <v>0</v>
       </c>
       <c r="E5" s="2">
@@ -13609,32 +13634,32 @@
       <c r="F5" s="2">
         <v>1872.23</v>
       </c>
-      <c r="G5" s="103">
+      <c r="G5" s="98">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="101"/>
-      <c r="B6" s="102"/>
-      <c r="C6" s="103"/>
-      <c r="D6" s="103"/>
-      <c r="E6" s="103">
+      <c r="A6" s="96"/>
+      <c r="B6" s="97"/>
+      <c r="C6" s="98"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="98">
         <v>4349.78</v>
       </c>
-      <c r="F6" s="103"/>
-      <c r="G6" s="103"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="98"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="101">
+      <c r="A7" s="96">
         <v>3</v>
       </c>
-      <c r="B7" s="102" t="s">
+      <c r="B7" s="97" t="s">
         <v>159</v>
       </c>
-      <c r="C7" s="103">
+      <c r="C7" s="98">
         <v>21.56</v>
       </c>
-      <c r="D7" s="103">
+      <c r="D7" s="98">
         <v>9.42</v>
       </c>
       <c r="E7" s="2">
@@ -13643,32 +13668,32 @@
       <c r="F7" s="2">
         <v>1877.62</v>
       </c>
-      <c r="G7" s="103">
+      <c r="G7" s="98">
         <v>8565.36</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="101"/>
-      <c r="B8" s="102"/>
-      <c r="C8" s="103"/>
-      <c r="D8" s="103"/>
-      <c r="E8" s="103">
+      <c r="A8" s="96"/>
+      <c r="B8" s="97"/>
+      <c r="C8" s="98"/>
+      <c r="D8" s="98"/>
+      <c r="E8" s="98">
         <v>23061.599999999999</v>
       </c>
-      <c r="F8" s="103"/>
-      <c r="G8" s="103"/>
+      <c r="F8" s="98"/>
+      <c r="G8" s="98"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="101">
+      <c r="A9" s="96">
         <v>4</v>
       </c>
-      <c r="B9" s="102" t="s">
+      <c r="B9" s="97" t="s">
         <v>160</v>
       </c>
-      <c r="C9" s="103">
+      <c r="C9" s="98">
         <v>6.68</v>
       </c>
-      <c r="D9" s="103">
+      <c r="D9" s="98">
         <v>0.8</v>
       </c>
       <c r="E9" s="2">
@@ -13677,32 +13702,32 @@
       <c r="F9" s="2">
         <v>1872.33</v>
       </c>
-      <c r="G9" s="103">
+      <c r="G9" s="98">
         <v>2.77</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="101"/>
-      <c r="B10" s="102"/>
-      <c r="C10" s="103"/>
-      <c r="D10" s="103"/>
-      <c r="E10" s="103">
+      <c r="A10" s="96"/>
+      <c r="B10" s="97"/>
+      <c r="C10" s="98"/>
+      <c r="D10" s="98"/>
+      <c r="E10" s="98">
         <v>3930.88</v>
       </c>
-      <c r="F10" s="103"/>
-      <c r="G10" s="103"/>
+      <c r="F10" s="98"/>
+      <c r="G10" s="98"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="101">
+      <c r="A11" s="96">
         <v>5</v>
       </c>
-      <c r="B11" s="102" t="s">
+      <c r="B11" s="97" t="s">
         <v>167</v>
       </c>
-      <c r="C11" s="103">
+      <c r="C11" s="98">
         <v>6.68</v>
       </c>
-      <c r="D11" s="103">
+      <c r="D11" s="98">
         <v>0</v>
       </c>
       <c r="E11" s="2">
@@ -13711,32 +13736,32 @@
       <c r="F11" s="2">
         <v>1872.23</v>
       </c>
-      <c r="G11" s="103">
+      <c r="G11" s="98">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="101"/>
-      <c r="B12" s="102"/>
-      <c r="C12" s="103"/>
-      <c r="D12" s="103"/>
-      <c r="E12" s="103">
+      <c r="A12" s="96"/>
+      <c r="B12" s="97"/>
+      <c r="C12" s="98"/>
+      <c r="D12" s="98"/>
+      <c r="E12" s="98">
         <v>4349.78</v>
       </c>
-      <c r="F12" s="103"/>
-      <c r="G12" s="103"/>
+      <c r="F12" s="98"/>
+      <c r="G12" s="98"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="101">
+      <c r="A13" s="96">
         <v>6</v>
       </c>
-      <c r="B13" s="102" t="s">
+      <c r="B13" s="97" t="s">
         <v>168</v>
       </c>
-      <c r="C13" s="103">
+      <c r="C13" s="98">
         <v>21.56</v>
       </c>
-      <c r="D13" s="103">
+      <c r="D13" s="98">
         <v>9.42</v>
       </c>
       <c r="E13" s="2">
@@ -13745,20 +13770,20 @@
       <c r="F13" s="2">
         <v>1877.62</v>
       </c>
-      <c r="G13" s="103">
+      <c r="G13" s="98">
         <v>8565.36</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="101"/>
-      <c r="B14" s="102"/>
-      <c r="C14" s="103"/>
-      <c r="D14" s="103"/>
-      <c r="E14" s="103">
+      <c r="A14" s="96"/>
+      <c r="B14" s="97"/>
+      <c r="C14" s="98"/>
+      <c r="D14" s="98"/>
+      <c r="E14" s="98">
         <v>23061.599999999999</v>
       </c>
-      <c r="F14" s="103"/>
-      <c r="G14" s="103"/>
+      <c r="F14" s="98"/>
+      <c r="G14" s="98"/>
     </row>
   </sheetData>
   <mergeCells count="40">
@@ -13822,7 +13847,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="81">
+      <c r="A1" s="76">
         <v>45000</v>
       </c>
     </row>
@@ -13852,7 +13877,7 @@
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" s="80">
+      <c r="A16" s="75">
         <v>45002</v>
       </c>
     </row>
@@ -13899,10 +13924,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="84"/>
+      <c r="B1" s="79"/>
       <c r="C1" s="1">
         <v>-11.59</v>
       </c>
@@ -13911,10 +13936,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="84"/>
+      <c r="B2" s="79"/>
       <c r="C2" s="1">
         <v>60</v>
       </c>
@@ -13923,10 +13948,10 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="83" t="s">
+      <c r="A3" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="84"/>
+      <c r="B3" s="79"/>
       <c r="C3" s="1">
         <v>15</v>
       </c>
@@ -13935,10 +13960,10 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="83" t="s">
+      <c r="A4" s="78" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="84"/>
+      <c r="B4" s="79"/>
       <c r="C4" s="1">
         <v>40</v>
       </c>
@@ -13947,10 +13972,10 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="85" t="s">
+      <c r="A5" s="80" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="86"/>
+      <c r="B5" s="81"/>
       <c r="C5" s="18">
         <v>2800</v>
       </c>
@@ -14234,36 +14259,36 @@
     </row>
     <row r="25" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="26" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="107" t="s">
+      <c r="A26" s="102" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="107"/>
-      <c r="C26" s="108"/>
-      <c r="D26" s="106" t="s">
+      <c r="B26" s="102"/>
+      <c r="C26" s="103"/>
+      <c r="D26" s="101" t="s">
         <v>46</v>
       </c>
-      <c r="E26" s="107"/>
-      <c r="F26" s="108"/>
-      <c r="G26" s="109" t="s">
+      <c r="E26" s="102"/>
+      <c r="F26" s="103"/>
+      <c r="G26" s="104" t="s">
         <v>51</v>
       </c>
-      <c r="H26" s="110"/>
-      <c r="I26" s="111"/>
+      <c r="H26" s="105"/>
+      <c r="I26" s="106"/>
       <c r="K26" s="9"/>
       <c r="L26" s="24">
         <v>0.77</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="107"/>
-      <c r="B27" s="107"/>
-      <c r="C27" s="108"/>
-      <c r="D27" s="106"/>
-      <c r="E27" s="107"/>
-      <c r="F27" s="108"/>
-      <c r="G27" s="109"/>
-      <c r="H27" s="110"/>
-      <c r="I27" s="111"/>
+      <c r="A27" s="102"/>
+      <c r="B27" s="102"/>
+      <c r="C27" s="103"/>
+      <c r="D27" s="101"/>
+      <c r="E27" s="102"/>
+      <c r="F27" s="103"/>
+      <c r="G27" s="104"/>
+      <c r="H27" s="105"/>
+      <c r="I27" s="106"/>
       <c r="K27" s="12"/>
       <c r="L27" s="26">
         <v>0.96</v>
@@ -14277,17 +14302,17 @@
         <v>1.9</v>
       </c>
       <c r="C28" s="32"/>
-      <c r="D28" s="113" t="s">
+      <c r="D28" s="108" t="s">
         <v>77</v>
       </c>
       <c r="E28">
         <v>18</v>
       </c>
       <c r="F28" s="32"/>
-      <c r="G28" s="113" t="s">
+      <c r="G28" s="108" t="s">
         <v>52</v>
       </c>
-      <c r="H28" s="110">
+      <c r="H28" s="105">
         <v>2565</v>
       </c>
       <c r="I28" s="32"/>
@@ -14304,10 +14329,10 @@
         <v>37.33</v>
       </c>
       <c r="C29" s="32"/>
-      <c r="D29" s="113"/>
+      <c r="D29" s="108"/>
       <c r="F29" s="32"/>
-      <c r="G29" s="113"/>
-      <c r="H29" s="110"/>
+      <c r="G29" s="108"/>
+      <c r="H29" s="105"/>
       <c r="I29" s="32"/>
       <c r="K29" s="12"/>
       <c r="L29" s="13">
@@ -14322,17 +14347,17 @@
         <v>20</v>
       </c>
       <c r="C30" s="32"/>
-      <c r="D30" s="113" t="s">
+      <c r="D30" s="108" t="s">
         <v>78</v>
       </c>
       <c r="E30">
         <v>34.200000000000003</v>
       </c>
       <c r="F30" s="32"/>
-      <c r="G30" s="113" t="s">
+      <c r="G30" s="108" t="s">
         <v>53</v>
       </c>
-      <c r="H30" s="110">
+      <c r="H30" s="105">
         <v>2565</v>
       </c>
       <c r="I30" s="32"/>
@@ -14352,10 +14377,10 @@
         <v>38</v>
       </c>
       <c r="C31" s="32"/>
-      <c r="D31" s="113"/>
+      <c r="D31" s="108"/>
       <c r="F31" s="32"/>
-      <c r="G31" s="113"/>
-      <c r="H31" s="110"/>
+      <c r="G31" s="108"/>
+      <c r="H31" s="105"/>
       <c r="I31" s="32"/>
       <c r="K31" s="12"/>
       <c r="L31" s="26">
@@ -14381,25 +14406,25 @@
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B34" s="112" t="s">
+      <c r="B34" s="107" t="s">
         <v>80</v>
       </c>
-      <c r="C34" s="112"/>
-      <c r="D34" s="112"/>
-      <c r="E34" s="112"/>
-      <c r="F34" s="112"/>
+      <c r="C34" s="107"/>
+      <c r="D34" s="107"/>
+      <c r="E34" s="107"/>
+      <c r="F34" s="107"/>
       <c r="G34" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B36" s="112" t="s">
+      <c r="B36" s="107" t="s">
         <v>81</v>
       </c>
-      <c r="C36" s="112"/>
-      <c r="D36" s="112"/>
-      <c r="E36" s="112"/>
-      <c r="F36" s="112"/>
+      <c r="C36" s="107"/>
+      <c r="D36" s="107"/>
+      <c r="E36" s="107"/>
+      <c r="F36" s="107"/>
       <c r="G36" t="s">
         <v>82</v>
       </c>
@@ -14508,31 +14533,31 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="60" t="s">
+      <c r="A10" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="60" t="s">
+      <c r="B10" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="60" t="s">
+      <c r="C10" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="60" t="s">
+      <c r="D10" s="56" t="s">
         <v>101</v>
       </c>
-      <c r="E10" s="60" t="s">
+      <c r="E10" s="56" t="s">
         <v>104</v>
       </c>
-      <c r="F10" s="61" t="s">
+      <c r="F10" s="57" t="s">
         <v>117</v>
       </c>
-      <c r="G10" s="61" t="s">
+      <c r="G10" s="57" t="s">
         <v>134</v>
       </c>
-      <c r="H10" s="60" t="s">
+      <c r="H10" s="56" t="s">
         <v>133</v>
       </c>
-      <c r="I10" s="61" t="s">
+      <c r="I10" s="57" t="s">
         <v>132</v>
       </c>
     </row>
@@ -14558,7 +14583,7 @@
         <f>+B11*$B$5*($B$4)/(1-(1+$B$4)^(-$B$6))+$B$7+E11</f>
         <v>111103.3450198815</v>
       </c>
-      <c r="G11" s="62">
+      <c r="G11" s="58">
         <f>+D11*$B$1/F11</f>
         <v>0.34141611873570271</v>
       </c>
@@ -14591,7 +14616,7 @@
         <f t="shared" ref="F12:F22" si="2">+B12*$B$5*($B$4)/(1-(1+$B$4)^(-$B$6))+$B$7+E12</f>
         <v>110070.76434321994</v>
       </c>
-      <c r="G12" s="62">
+      <c r="G12" s="58">
         <f t="shared" ref="G12:G22" si="3">+D12*$B$1/F12</f>
         <v>0.32895446616183266</v>
       </c>
@@ -14624,7 +14649,7 @@
         <f>+B13*$B$5*($B$4)/(1-(1+$B$4)^(-$B$6))+$B$7+E13</f>
         <v>109160.76877460431</v>
       </c>
-      <c r="G13" s="62">
+      <c r="G13" s="58">
         <f t="shared" si="3"/>
         <v>0.32116667044680841</v>
       </c>
@@ -14657,7 +14682,7 @@
         <f>+B14*$B$5*($B$4)/(1-(1+$B$4)^(-$B$6))+$B$7+E14</f>
         <v>108373.35831403454</v>
       </c>
-      <c r="G14" s="62">
+      <c r="G14" s="58">
         <f t="shared" si="3"/>
         <v>0.30759033270397329</v>
       </c>
@@ -14690,7 +14715,7 @@
         <f t="shared" si="2"/>
         <v>107585.94785346478</v>
       </c>
-      <c r="G15" s="62">
+      <c r="G15" s="58">
         <f t="shared" si="3"/>
         <v>0.29915736309822444</v>
       </c>
@@ -14723,7 +14748,7 @@
         <f t="shared" si="2"/>
         <v>107043.70760898681</v>
       </c>
-      <c r="G16" s="62">
+      <c r="G16" s="58">
         <f t="shared" si="3"/>
         <v>0.28993446028456532</v>
       </c>
@@ -14756,7 +14781,7 @@
         <f t="shared" si="2"/>
         <v>106501.46736450883</v>
       </c>
-      <c r="G17" s="62">
+      <c r="G17" s="58">
         <f t="shared" si="3"/>
         <v>0.28061764272587525</v>
       </c>
@@ -14789,7 +14814,7 @@
         <f t="shared" si="2"/>
         <v>106081.81222807673</v>
       </c>
-      <c r="G18" s="62">
+      <c r="G18" s="58">
         <f t="shared" si="3"/>
         <v>0.26547422990317987</v>
       </c>
@@ -14822,7 +14847,7 @@
         <f t="shared" si="2"/>
         <v>105784.74219969053</v>
       </c>
-      <c r="G19" s="62">
+      <c r="G19" s="58">
         <f t="shared" si="3"/>
         <v>0.25535363581257775</v>
       </c>
@@ -14855,7 +14880,7 @@
         <f t="shared" si="2"/>
         <v>105610.25727935022</v>
       </c>
-      <c r="G20" s="62">
+      <c r="G20" s="58">
         <f t="shared" si="3"/>
         <v>0.25033348822698998</v>
       </c>
@@ -14888,7 +14913,7 @@
         <f t="shared" si="2"/>
         <v>105435.7723590099</v>
       </c>
-      <c r="G21" s="62">
+      <c r="G21" s="58">
         <f t="shared" si="3"/>
         <v>0.23984568669338738</v>
       </c>
@@ -14921,7 +14946,7 @@
         <f t="shared" si="2"/>
         <v>105261.28743866959</v>
       </c>
-      <c r="G22" s="62">
+      <c r="G22" s="58">
         <f t="shared" si="3"/>
         <v>0.22932311524085891</v>
       </c>
@@ -14961,15 +14986,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D1" s="76" t="s">
+      <c r="D1" s="71" t="s">
         <v>144</v>
       </c>
-      <c r="E1" s="77" t="s">
+      <c r="E1" s="72" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D2" s="73" t="s">
+      <c r="D2" s="68" t="s">
         <v>146</v>
       </c>
       <c r="E2" s="20">
@@ -14977,7 +15002,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D3" s="73" t="s">
+      <c r="D3" s="68" t="s">
         <v>147</v>
       </c>
       <c r="E3" s="20" t="s">
@@ -14985,51 +15010,51 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D4" s="74" t="s">
+      <c r="D4" s="69" t="s">
         <v>148</v>
       </c>
-      <c r="E4" s="75">
+      <c r="E4" s="70">
         <v>0.1</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="66" t="s">
+      <c r="A9" s="62" t="s">
         <v>135</v>
       </c>
-      <c r="B9" s="66" t="s">
+      <c r="B9" s="62" t="s">
         <v>136</v>
       </c>
-      <c r="C9" s="66" t="s">
+      <c r="C9" s="62" t="s">
         <v>137</v>
       </c>
-      <c r="D9" s="66" t="s">
+      <c r="D9" s="62" t="s">
         <v>138</v>
       </c>
-      <c r="E9" s="66" t="s">
+      <c r="E9" s="62" t="s">
         <v>150</v>
       </c>
-      <c r="F9" s="66" t="s">
+      <c r="F9" s="62" t="s">
         <v>151</v>
       </c>
-      <c r="J9" s="68" t="s">
+      <c r="J9" s="64" t="s">
         <v>143</v>
       </c>
-      <c r="K9" s="66" t="s">
+      <c r="K9" s="62" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="65">
+      <c r="A10" s="61">
         <v>0</v>
       </c>
-      <c r="B10" s="65">
+      <c r="B10" s="61">
         <v>0</v>
       </c>
-      <c r="C10" s="65">
+      <c r="C10" s="61">
         <v>7000</v>
       </c>
-      <c r="D10" s="65">
+      <c r="D10" s="61">
         <f>+B10-C10</f>
         <v>-7000</v>
       </c>
@@ -15038,25 +15063,25 @@
         <f>+D10</f>
         <v>-7000</v>
       </c>
-      <c r="J10" s="67">
+      <c r="J10" s="63">
         <v>0</v>
       </c>
-      <c r="K10" s="69">
+      <c r="K10" s="65">
         <f>+NPV(J10,$D$11:$D$15)+$D$10</f>
         <v>5500</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="65">
+      <c r="A11" s="61">
         <v>1</v>
       </c>
-      <c r="B11" s="65">
+      <c r="B11" s="61">
         <v>5310.6571516000549</v>
       </c>
-      <c r="C11" s="65">
+      <c r="C11" s="61">
         <v>4425.7689285549814</v>
       </c>
-      <c r="D11" s="65">
+      <c r="D11" s="61">
         <v>2500</v>
       </c>
       <c r="E11" s="27">
@@ -15067,25 +15092,25 @@
         <f>+D11/E11</f>
         <v>2272.7272727272725</v>
       </c>
-      <c r="J11" s="67">
+      <c r="J11" s="63">
         <v>0.01</v>
       </c>
-      <c r="K11" s="69">
+      <c r="K11" s="65">
         <f t="shared" ref="K11:K41" si="1">+NPV(J11,$D$11:$D$15)+$D$10</f>
         <v>5133.5780983128006</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="65">
+      <c r="A12" s="61">
         <v>2</v>
       </c>
-      <c r="B12" s="65">
+      <c r="B12" s="61">
         <v>5310.6571516000549</v>
       </c>
-      <c r="C12" s="65">
+      <c r="C12" s="61">
         <v>4425.7689285549814</v>
       </c>
-      <c r="D12" s="65">
+      <c r="D12" s="61">
         <v>2500</v>
       </c>
       <c r="E12" s="27">
@@ -15096,25 +15121,25 @@
         <f t="shared" ref="F12:F15" si="2">+F11/E12</f>
         <v>1878.2870022539439</v>
       </c>
-      <c r="J12" s="67">
+      <c r="J12" s="63">
         <v>0.02</v>
       </c>
-      <c r="K12" s="69">
+      <c r="K12" s="65">
         <f t="shared" si="1"/>
         <v>4783.648771260514</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="65">
+      <c r="A13" s="61">
         <v>3</v>
       </c>
-      <c r="B13" s="65">
+      <c r="B13" s="61">
         <v>5310.6571516000549</v>
       </c>
-      <c r="C13" s="65">
+      <c r="C13" s="61">
         <v>4425.7689285549814</v>
       </c>
-      <c r="D13" s="65">
+      <c r="D13" s="61">
         <v>2500</v>
       </c>
       <c r="E13" s="27">
@@ -15125,25 +15150,25 @@
         <f t="shared" si="2"/>
         <v>1411.1848251344427</v>
       </c>
-      <c r="J13" s="67">
+      <c r="J13" s="63">
         <v>0.03</v>
       </c>
-      <c r="K13" s="69">
+      <c r="K13" s="65">
         <f t="shared" si="1"/>
         <v>4449.267967986334</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="65">
+      <c r="A14" s="61">
         <v>4</v>
       </c>
-      <c r="B14" s="65">
+      <c r="B14" s="61">
         <v>5310.6571516000549</v>
       </c>
-      <c r="C14" s="65">
+      <c r="C14" s="61">
         <v>4425.7689285549814</v>
       </c>
-      <c r="D14" s="65">
+      <c r="D14" s="61">
         <v>2500</v>
       </c>
       <c r="E14" s="27">
@@ -15154,25 +15179,25 @@
         <f t="shared" si="2"/>
         <v>963.85822357382847</v>
       </c>
-      <c r="J14" s="67">
+      <c r="J14" s="63">
         <v>0.04</v>
       </c>
-      <c r="K14" s="69">
+      <c r="K14" s="65">
         <f t="shared" si="1"/>
         <v>4129.5558275405128</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="65">
+      <c r="A15" s="61">
         <v>5</v>
       </c>
-      <c r="B15" s="65">
+      <c r="B15" s="61">
         <v>5310.6571516000549</v>
       </c>
-      <c r="C15" s="65">
+      <c r="C15" s="61">
         <v>4425.7689285549814</v>
       </c>
-      <c r="D15" s="65">
+      <c r="D15" s="61">
         <v>2500</v>
       </c>
       <c r="E15" s="27">
@@ -15183,10 +15208,10 @@
         <f t="shared" si="2"/>
         <v>598.48012342290838</v>
       </c>
-      <c r="J15" s="67">
+      <c r="J15" s="63">
         <v>0.05</v>
       </c>
-      <c r="K15" s="69">
+      <c r="K15" s="65">
         <f t="shared" si="1"/>
         <v>3823.6916765770457</v>
       </c>
@@ -15195,23 +15220,23 @@
       <c r="E16" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="49">
+      <c r="F16" s="47">
         <f>+SUM(F10:F15)</f>
         <v>124.53744711239528</v>
       </c>
-      <c r="J16" s="67">
+      <c r="J16" s="63">
         <v>0.06</v>
       </c>
-      <c r="K16" s="69">
+      <c r="K16" s="65">
         <f t="shared" si="1"/>
         <v>3530.9094639142822</v>
       </c>
     </row>
     <row r="17" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="J17" s="67">
+      <c r="J17" s="63">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="K17" s="69">
+      <c r="K17" s="65">
         <f t="shared" si="1"/>
         <v>3250.4935898689837</v>
       </c>
@@ -15220,14 +15245,14 @@
       <c r="E18" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="F18" s="64">
+      <c r="F18" s="60">
         <f>+NPV(E4,D11:D15)+D10</f>
         <v>2476.9669235211186</v>
       </c>
-      <c r="J18" s="67">
+      <c r="J18" s="63">
         <v>0.08</v>
       </c>
-      <c r="K18" s="69">
+      <c r="K18" s="65">
         <f t="shared" si="1"/>
         <v>2981.775092695214</v>
       </c>
@@ -15236,833 +15261,833 @@
       <c r="E19" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="F19" s="78">
+      <c r="F19" s="73">
         <f>+IRR(D10:D15)</f>
         <v>0.23058813685536839</v>
       </c>
-      <c r="J19" s="67">
+      <c r="J19" s="63">
         <v>0.09</v>
       </c>
-      <c r="K19" s="69">
+      <c r="K19" s="65">
         <f t="shared" si="1"/>
         <v>2724.1281583792897</v>
       </c>
     </row>
     <row r="20" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="J20" s="67">
+      <c r="J20" s="63">
         <v>0.1</v>
       </c>
-      <c r="K20" s="69">
+      <c r="K20" s="65">
         <f t="shared" si="1"/>
         <v>2476.9669235211186</v>
       </c>
     </row>
     <row r="21" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="J21" s="67">
+      <c r="J21" s="63">
         <v>0.11</v>
       </c>
-      <c r="K21" s="69">
+      <c r="K21" s="65">
         <f t="shared" si="1"/>
         <v>2239.742544123661</v>
       </c>
     </row>
     <row r="22" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="J22" s="67">
+      <c r="J22" s="63">
         <v>0.12</v>
       </c>
-      <c r="K22" s="69">
+      <c r="K22" s="65">
         <f t="shared" si="1"/>
         <v>2011.9405058625107</v>
       </c>
     </row>
     <row r="23" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="J23" s="67">
+      <c r="J23" s="63">
         <v>0.13</v>
       </c>
-      <c r="K23" s="69">
+      <c r="K23" s="65">
         <f t="shared" si="1"/>
         <v>1793.0781538567662</v>
       </c>
     </row>
     <row r="24" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="J24" s="67">
+      <c r="J24" s="63">
         <v>0.14000000000000001</v>
       </c>
-      <c r="K24" s="69">
+      <c r="K24" s="65">
         <f t="shared" si="1"/>
         <v>1582.7024221461488</v>
       </c>
     </row>
     <row r="25" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="J25" s="67">
+      <c r="J25" s="63">
         <v>0.15</v>
       </c>
-      <c r="K25" s="69">
+      <c r="K25" s="65">
         <f t="shared" si="1"/>
         <v>1380.3877450285054</v>
       </c>
     </row>
     <row r="26" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="J26" s="67">
+      <c r="J26" s="63">
         <v>0.16</v>
       </c>
-      <c r="K26" s="69">
+      <c r="K26" s="65">
         <f t="shared" si="1"/>
         <v>1185.7341341530901</v>
       </c>
     </row>
     <row r="27" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="J27" s="67">
+      <c r="J27" s="63">
         <v>0.17</v>
       </c>
-      <c r="K27" s="69">
+      <c r="K27" s="65">
         <f t="shared" si="1"/>
         <v>998.36540682303894</v>
       </c>
     </row>
     <row r="28" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="J28" s="67">
+      <c r="J28" s="63">
         <v>0.18</v>
       </c>
-      <c r="K28" s="69">
+      <c r="K28" s="65">
         <f t="shared" si="1"/>
         <v>817.92755235474397</v>
       </c>
     </row>
     <row r="29" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="J29" s="67">
+      <c r="J29" s="63">
         <v>0.19</v>
       </c>
-      <c r="K29" s="69">
+      <c r="K29" s="65">
         <f t="shared" si="1"/>
         <v>644.08722459201999</v>
       </c>
     </row>
     <row r="30" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="J30" s="67">
+      <c r="J30" s="63">
         <v>0.2</v>
       </c>
-      <c r="K30" s="69">
+      <c r="K30" s="65">
         <f t="shared" si="1"/>
         <v>476.53034979423865</v>
       </c>
     </row>
     <row r="31" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="J31" s="67">
+      <c r="J31" s="63">
         <v>0.21</v>
       </c>
-      <c r="K31" s="69">
+      <c r="K31" s="65">
         <f t="shared" si="1"/>
         <v>314.96084012462325</v>
       </c>
     </row>
     <row r="32" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="J32" s="67">
+      <c r="J32" s="63">
         <v>0.22</v>
       </c>
-      <c r="K32" s="69">
+      <c r="K32" s="65">
         <f t="shared" si="1"/>
         <v>159.09940387011102</v>
       </c>
     </row>
     <row r="33" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J33" s="67">
+      <c r="J33" s="63">
         <v>0.23</v>
       </c>
-      <c r="K33" s="69">
+      <c r="K33" s="65">
         <f t="shared" si="1"/>
         <v>8.6824443385730774</v>
       </c>
     </row>
     <row r="34" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J34" s="67">
+      <c r="J34" s="63">
         <v>0.24</v>
       </c>
-      <c r="K34" s="69">
+      <c r="K34" s="65">
         <f t="shared" si="1"/>
         <v>-136.53895988742352</v>
       </c>
     </row>
     <row r="35" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J35" s="67">
+      <c r="J35" s="63">
         <v>0.25</v>
       </c>
-      <c r="K35" s="69">
+      <c r="K35" s="65">
         <f t="shared" si="1"/>
         <v>-276.80000000000018</v>
       </c>
     </row>
     <row r="36" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J36" s="67">
+      <c r="J36" s="63">
         <v>0.26</v>
       </c>
-      <c r="K36" s="69">
+      <c r="K36" s="65">
         <f t="shared" si="1"/>
         <v>-412.32301338182515</v>
       </c>
     </row>
     <row r="37" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J37" s="67">
+      <c r="J37" s="63">
         <v>0.27</v>
       </c>
-      <c r="K37" s="69">
+      <c r="K37" s="65">
         <f t="shared" si="1"/>
         <v>-543.31829691318853</v>
       </c>
     </row>
     <row r="38" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J38" s="67">
+      <c r="J38" s="63">
         <v>0.28000000000000003</v>
       </c>
-      <c r="K38" s="69">
+      <c r="K38" s="65">
         <f t="shared" si="1"/>
         <v>-669.98486220836639</v>
       </c>
     </row>
     <row r="39" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J39" s="67">
+      <c r="J39" s="63">
         <v>0.28999999999999998</v>
       </c>
-      <c r="K39" s="69">
+      <c r="K39" s="65">
         <f t="shared" si="1"/>
         <v>-792.51113737906417</v>
       </c>
     </row>
     <row r="40" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J40" s="67">
+      <c r="J40" s="63">
         <v>0.3</v>
       </c>
-      <c r="K40" s="69">
+      <c r="K40" s="65">
         <f t="shared" si="1"/>
         <v>-911.07561952420474</v>
       </c>
     </row>
     <row r="41" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J41" s="67">
+      <c r="J41" s="63">
         <v>0.31</v>
       </c>
-      <c r="K41" s="69">
+      <c r="K41" s="65">
         <f t="shared" si="1"/>
         <v>-1025.8474817842543</v>
       </c>
     </row>
     <row r="42" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J42" s="67">
+      <c r="J42" s="63">
         <v>0.32</v>
       </c>
-      <c r="K42" s="69">
+      <c r="K42" s="65">
         <f t="shared" ref="K42:K73" si="3">+NPV(J42,$D$11:$D$15)+$D$10</f>
         <v>-1136.9871384707958</v>
       </c>
     </row>
     <row r="43" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J43" s="67">
+      <c r="J43" s="63">
         <v>0.33</v>
       </c>
-      <c r="K43" s="69">
+      <c r="K43" s="65">
         <f t="shared" si="3"/>
         <v>-1244.6467714849723</v>
       </c>
     </row>
     <row r="44" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J44" s="67">
+      <c r="J44" s="63">
         <v>0.34</v>
       </c>
-      <c r="K44" s="69">
+      <c r="K44" s="65">
         <f t="shared" si="3"/>
         <v>-1348.9708209685195</v>
       </c>
     </row>
     <row r="45" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J45" s="67">
+      <c r="J45" s="63">
         <v>0.35</v>
       </c>
-      <c r="K45" s="69">
+      <c r="K45" s="65">
         <f t="shared" si="3"/>
         <v>-1450.0964428858597</v>
       </c>
     </row>
     <row r="46" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J46" s="67">
+      <c r="J46" s="63">
         <v>0.36</v>
       </c>
-      <c r="K46" s="69">
+      <c r="K46" s="65">
         <f t="shared" si="3"/>
         <v>-1548.1539360125698</v>
       </c>
     </row>
     <row r="47" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J47" s="67">
+      <c r="J47" s="63">
         <v>0.37</v>
       </c>
-      <c r="K47" s="69">
+      <c r="K47" s="65">
         <f t="shared" si="3"/>
         <v>-1643.2671406024974</v>
       </c>
     </row>
     <row r="48" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J48" s="67">
+      <c r="J48" s="63">
         <v>0.38</v>
       </c>
-      <c r="K48" s="69">
+      <c r="K48" s="65">
         <f t="shared" si="3"/>
         <v>-1735.5538108207047</v>
       </c>
     </row>
     <row r="49" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J49" s="67">
+      <c r="J49" s="63">
         <v>0.39</v>
       </c>
-      <c r="K49" s="69">
+      <c r="K49" s="65">
         <f t="shared" si="3"/>
         <v>-1825.1259628608614</v>
       </c>
     </row>
     <row r="50" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J50" s="67">
+      <c r="J50" s="63">
         <v>0.4</v>
       </c>
-      <c r="K50" s="69">
+      <c r="K50" s="65">
         <f t="shared" si="3"/>
         <v>-1912.0902005116914</v>
       </c>
     </row>
     <row r="51" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J51" s="67">
+      <c r="J51" s="63">
         <v>0.41</v>
       </c>
-      <c r="K51" s="69">
+      <c r="K51" s="65">
         <f t="shared" si="3"/>
         <v>-1996.5480197967927</v>
       </c>
     </row>
     <row r="52" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J52" s="67">
+      <c r="J52" s="63">
         <v>0.42</v>
       </c>
-      <c r="K52" s="69">
+      <c r="K52" s="65">
         <f t="shared" si="3"/>
         <v>-2078.5960941835929</v>
       </c>
     </row>
     <row r="53" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J53" s="67">
+      <c r="J53" s="63">
         <v>0.43</v>
       </c>
-      <c r="K53" s="69">
+      <c r="K53" s="65">
         <f t="shared" si="3"/>
         <v>-2158.3265417400789</v>
       </c>
     </row>
     <row r="54" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J54" s="67">
+      <c r="J54" s="63">
         <v>0.44</v>
       </c>
-      <c r="K54" s="69">
+      <c r="K54" s="65">
         <f t="shared" si="3"/>
         <v>-2235.8271755104861</v>
       </c>
     </row>
     <row r="55" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J55" s="67">
+      <c r="J55" s="63">
         <v>0.45</v>
       </c>
-      <c r="K55" s="69">
+      <c r="K55" s="65">
         <f t="shared" si="3"/>
         <v>-2311.1817382829204</v>
       </c>
     </row>
     <row r="56" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J56" s="67">
+      <c r="J56" s="63">
         <v>0.46</v>
       </c>
-      <c r="K56" s="69">
+      <c r="K56" s="65">
         <f t="shared" si="3"/>
         <v>-2384.4701228318836</v>
       </c>
     </row>
     <row r="57" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J57" s="67">
+      <c r="J57" s="63">
         <v>0.47</v>
       </c>
-      <c r="K57" s="69">
+      <c r="K57" s="65">
         <f t="shared" si="3"/>
         <v>-2455.7685786361608</v>
       </c>
     </row>
     <row r="58" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J58" s="67">
+      <c r="J58" s="63">
         <v>0.48</v>
       </c>
-      <c r="K58" s="69">
+      <c r="K58" s="65">
         <f t="shared" si="3"/>
         <v>-2525.1499059968555</v>
       </c>
     </row>
     <row r="59" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J59" s="67">
+      <c r="J59" s="63">
         <v>0.49</v>
       </c>
-      <c r="K59" s="69">
+      <c r="K59" s="65">
         <f t="shared" si="3"/>
         <v>-2592.6836384109283</v>
       </c>
     </row>
     <row r="60" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J60" s="67">
+      <c r="J60" s="63">
         <v>0.5</v>
       </c>
-      <c r="K60" s="69">
+      <c r="K60" s="65">
         <f t="shared" si="3"/>
         <v>-2658.4362139917694</v>
       </c>
     </row>
     <row r="61" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J61" s="67">
+      <c r="J61" s="63">
         <v>0.51</v>
       </c>
-      <c r="K61" s="69">
+      <c r="K61" s="65">
         <f t="shared" si="3"/>
         <v>-2722.4711366697675</v>
       </c>
     </row>
     <row r="62" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J62" s="67">
+      <c r="J62" s="63">
         <v>0.52</v>
       </c>
-      <c r="K62" s="69">
+      <c r="K62" s="65">
         <f t="shared" si="3"/>
         <v>-2784.8491278519159</v>
       </c>
     </row>
     <row r="63" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J63" s="67">
+      <c r="J63" s="63">
         <v>0.53</v>
       </c>
-      <c r="K63" s="69">
+      <c r="K63" s="65">
         <f t="shared" si="3"/>
         <v>-2845.6282691699143</v>
       </c>
     </row>
     <row r="64" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J64" s="67">
+      <c r="J64" s="63">
         <v>0.54</v>
       </c>
-      <c r="K64" s="69">
+      <c r="K64" s="65">
         <f t="shared" si="3"/>
         <v>-2904.8641369005913</v>
       </c>
     </row>
     <row r="65" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J65" s="67">
+      <c r="J65" s="63">
         <v>0.55000000000000004</v>
       </c>
-      <c r="K65" s="69">
+      <c r="K65" s="65">
         <f t="shared" si="3"/>
         <v>-2962.6099286003973</v>
       </c>
     </row>
     <row r="66" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J66" s="67">
+      <c r="J66" s="63">
         <v>0.56000000000000005</v>
       </c>
-      <c r="K66" s="69">
+      <c r="K66" s="65">
         <f t="shared" si="3"/>
         <v>-3018.9165824569973</v>
       </c>
     </row>
     <row r="67" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J67" s="67">
+      <c r="J67" s="63">
         <v>0.56999999999999995</v>
       </c>
-      <c r="K67" s="69">
+      <c r="K67" s="65">
         <f t="shared" si="3"/>
         <v>-3073.8328898252225</v>
       </c>
     </row>
     <row r="68" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J68" s="67">
+      <c r="J68" s="63">
         <v>0.57999999999999996</v>
       </c>
-      <c r="K68" s="69">
+      <c r="K68" s="65">
         <f t="shared" si="3"/>
         <v>-3127.4056013816994</v>
       </c>
     </row>
     <row r="69" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J69" s="67">
+      <c r="J69" s="63">
         <v>0.59</v>
       </c>
-      <c r="K69" s="69">
+      <c r="K69" s="65">
         <f t="shared" si="3"/>
         <v>-3179.6795273019779</v>
       </c>
     </row>
     <row r="70" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J70" s="67">
+      <c r="J70" s="63">
         <v>0.6</v>
       </c>
-      <c r="K70" s="69">
+      <c r="K70" s="65">
         <f t="shared" si="3"/>
         <v>-3230.6976318359375</v>
       </c>
     </row>
     <row r="71" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J71" s="67">
+      <c r="J71" s="63">
         <v>0.61</v>
       </c>
-      <c r="K71" s="69">
+      <c r="K71" s="65">
         <f t="shared" si="3"/>
         <v>-3280.5011226311713</v>
       </c>
     </row>
     <row r="72" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J72" s="67">
+      <c r="J72" s="63">
         <v>0.62</v>
       </c>
-      <c r="K72" s="69">
+      <c r="K72" s="65">
         <f t="shared" si="3"/>
         <v>-3329.1295351300969</v>
       </c>
     </row>
     <row r="73" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J73" s="67">
+      <c r="J73" s="63">
         <v>0.63</v>
       </c>
-      <c r="K73" s="69">
+      <c r="K73" s="65">
         <f t="shared" si="3"/>
         <v>-3376.6208123442293</v>
       </c>
     </row>
     <row r="74" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J74" s="67">
+      <c r="J74" s="63">
         <v>0.64</v>
       </c>
-      <c r="K74" s="69">
+      <c r="K74" s="65">
         <f t="shared" ref="K74" si="4">+NPV(J74,$D$11:$D$15)+$D$10</f>
         <v>-3423.0113802885708</v>
       </c>
     </row>
     <row r="75" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J75" s="67">
+      <c r="J75" s="63">
         <v>0.65</v>
       </c>
-      <c r="K75" s="69">
+      <c r="K75" s="65">
         <f t="shared" ref="K75:K110" si="5">+NPV(J75,$D$11:$D$15)+$D$10</f>
         <v>-3468.3362193398693</v>
       </c>
     </row>
     <row r="76" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J76" s="67">
+      <c r="J76" s="63">
         <v>0.66</v>
       </c>
-      <c r="K76" s="69">
+      <c r="K76" s="65">
         <f t="shared" si="5"/>
         <v>-3512.628931764998</v>
       </c>
     </row>
     <row r="77" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J77" s="67">
+      <c r="J77" s="63">
         <v>0.67</v>
       </c>
-      <c r="K77" s="69">
+      <c r="K77" s="65">
         <f t="shared" si="5"/>
         <v>-3555.9218056491736</v>
       </c>
     </row>
     <row r="78" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J78" s="67">
+      <c r="J78" s="63">
         <v>0.68</v>
       </c>
-      <c r="K78" s="69">
+      <c r="K78" s="65">
         <f t="shared" si="5"/>
         <v>-3598.2458754386835</v>
       </c>
     </row>
     <row r="79" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J79" s="67">
+      <c r="J79" s="63">
         <v>0.69</v>
       </c>
-      <c r="K79" s="69">
+      <c r="K79" s="65">
         <f t="shared" si="5"/>
         <v>-3639.6309792985717</v>
       </c>
     </row>
     <row r="80" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J80" s="67">
+      <c r="J80" s="63">
         <v>0.7</v>
       </c>
-      <c r="K80" s="69">
+      <c r="K80" s="65">
         <f t="shared" si="5"/>
         <v>-3680.105813472765</v>
       </c>
     </row>
     <row r="81" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J81" s="67">
+      <c r="J81" s="63">
         <v>0.71</v>
       </c>
-      <c r="K81" s="69">
+      <c r="K81" s="65">
         <f t="shared" si="5"/>
         <v>-3719.6979838218581</v>
       </c>
     </row>
     <row r="82" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J82" s="67">
+      <c r="J82" s="63">
         <v>0.72</v>
       </c>
-      <c r="K82" s="69">
+      <c r="K82" s="65">
         <f t="shared" si="5"/>
         <v>-3758.4340547025586</v>
       </c>
     </row>
     <row r="83" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J83" s="67">
+      <c r="J83" s="63">
         <v>0.73</v>
       </c>
-      <c r="K83" s="69">
+      <c r="K83" s="65">
         <f t="shared" si="5"/>
         <v>-3796.3395953422523</v>
       </c>
     </row>
     <row r="84" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J84" s="67">
+      <c r="J84" s="63">
         <v>0.74</v>
       </c>
-      <c r="K84" s="69">
+      <c r="K84" s="65">
         <f t="shared" si="5"/>
         <v>-3833.4392238523865</v>
       </c>
     </row>
     <row r="85" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J85" s="67">
+      <c r="J85" s="63">
         <v>0.75</v>
       </c>
-      <c r="K85" s="69">
+      <c r="K85" s="65">
         <f t="shared" si="5"/>
         <v>-3869.7566490152917</v>
       </c>
     </row>
     <row r="86" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J86" s="67">
+      <c r="J86" s="63">
         <v>0.76</v>
       </c>
-      <c r="K86" s="69">
+      <c r="K86" s="65">
         <f t="shared" si="5"/>
         <v>-3905.3147099705602</v>
       </c>
     </row>
     <row r="87" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J87" s="67">
+      <c r="J87" s="63">
         <v>0.77</v>
       </c>
-      <c r="K87" s="69">
+      <c r="K87" s="65">
         <f t="shared" si="5"/>
         <v>-3940.1354139192813</v>
       </c>
     </row>
     <row r="88" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J88" s="67">
+      <c r="J88" s="63">
         <v>0.78</v>
       </c>
-      <c r="K88" s="69">
+      <c r="K88" s="65">
         <f t="shared" si="5"/>
         <v>-3974.2399719570039</v>
       </c>
     </row>
     <row r="89" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J89" s="67">
+      <c r="J89" s="63">
         <v>0.79</v>
       </c>
-      <c r="K89" s="69">
+      <c r="K89" s="65">
         <f t="shared" si="5"/>
         <v>-4007.6488331395312</v>
       </c>
     </row>
     <row r="90" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J90" s="67">
+      <c r="J90" s="63">
         <v>0.8</v>
       </c>
-      <c r="K90" s="69">
+      <c r="K90" s="65">
         <f t="shared" si="5"/>
         <v>-4040.381716879202</v>
       </c>
     </row>
     <row r="91" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J91" s="67">
+      <c r="J91" s="63">
         <v>0.81</v>
       </c>
-      <c r="K91" s="69">
+      <c r="K91" s="65">
         <f t="shared" si="5"/>
         <v>-4072.4576437633873</v>
       </c>
     </row>
     <row r="92" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J92" s="67">
+      <c r="J92" s="63">
         <v>0.82</v>
       </c>
-      <c r="K92" s="69">
+      <c r="K92" s="65">
         <f t="shared" si="5"/>
         <v>-4103.8949648813523</v>
       </c>
     </row>
     <row r="93" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J93" s="67">
+      <c r="J93" s="63">
         <v>0.83</v>
       </c>
-      <c r="K93" s="69">
+      <c r="K93" s="65">
         <f t="shared" si="5"/>
         <v>-4134.7113897404652</v>
       </c>
     </row>
     <row r="94" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J94" s="67">
+      <c r="J94" s="63">
         <v>0.84</v>
       </c>
-      <c r="K94" s="69">
+      <c r="K94" s="65">
         <f t="shared" si="5"/>
         <v>-4164.9240128478232</v>
       </c>
     </row>
     <row r="95" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J95" s="67">
+      <c r="J95" s="63">
         <v>0.85</v>
       </c>
-      <c r="K95" s="69">
+      <c r="K95" s="65">
         <f t="shared" si="5"/>
         <v>-4194.549339028923</v>
       </c>
     </row>
     <row r="96" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J96" s="67">
+      <c r="J96" s="63">
         <v>0.86</v>
       </c>
-      <c r="K96" s="69">
+      <c r="K96" s="65">
         <f t="shared" si="5"/>
         <v>-4223.603307550653</v>
       </c>
     </row>
     <row r="97" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J97" s="67">
+      <c r="J97" s="63">
         <v>0.87</v>
       </c>
-      <c r="K97" s="69">
+      <c r="K97" s="65">
         <f t="shared" si="5"/>
         <v>-4252.1013151120305</v>
       </c>
     </row>
     <row r="98" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J98" s="67">
+      <c r="J98" s="63">
         <v>0.88</v>
       </c>
-      <c r="K98" s="69">
+      <c r="K98" s="65">
         <f t="shared" si="5"/>
         <v>-4280.0582377622895</v>
       </c>
     </row>
     <row r="99" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J99" s="67">
+      <c r="J99" s="63">
         <v>0.89</v>
       </c>
-      <c r="K99" s="69">
+      <c r="K99" s="65">
         <f t="shared" si="5"/>
         <v>-4307.4884518025465</v>
       </c>
     </row>
     <row r="100" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J100" s="67">
+      <c r="J100" s="63">
         <v>0.9</v>
       </c>
-      <c r="K100" s="69">
+      <c r="K100" s="65">
         <f t="shared" si="5"/>
         <v>-4334.4058537239416</v>
       </c>
     </row>
     <row r="101" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J101" s="67">
+      <c r="J101" s="63">
         <v>0.91</v>
       </c>
-      <c r="K101" s="69">
+      <c r="K101" s="65">
         <f t="shared" si="5"/>
         <v>-4360.8238792321663</v>
       </c>
     </row>
     <row r="102" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J102" s="67">
+      <c r="J102" s="63">
         <v>0.92</v>
       </c>
-      <c r="K102" s="69">
+      <c r="K102" s="65">
         <f t="shared" si="5"/>
         <v>-4386.7555214053809</v>
       </c>
     </row>
     <row r="103" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J103" s="67">
+      <c r="J103" s="63">
         <v>0.93</v>
       </c>
-      <c r="K103" s="69">
+      <c r="K103" s="65">
         <f t="shared" si="5"/>
         <v>-4412.2133480298999</v>
       </c>
     </row>
     <row r="104" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J104" s="67">
+      <c r="J104" s="63">
         <v>0.94</v>
       </c>
-      <c r="K104" s="69">
+      <c r="K104" s="65">
         <f t="shared" si="5"/>
         <v>-4437.209518155465</v>
       </c>
     </row>
     <row r="105" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J105" s="67">
+      <c r="J105" s="63">
         <v>0.95</v>
       </c>
-      <c r="K105" s="69">
+      <c r="K105" s="65">
         <f t="shared" si="5"/>
         <v>-4461.7557979096046</v>
       </c>
     </row>
     <row r="106" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J106" s="67">
+      <c r="J106" s="63">
         <v>0.96</v>
       </c>
-      <c r="K106" s="69">
+      <c r="K106" s="65">
         <f t="shared" si="5"/>
         <v>-4485.8635756083531</v>
       </c>
     </row>
     <row r="107" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J107" s="67">
+      <c r="J107" s="63">
         <v>0.97</v>
       </c>
-      <c r="K107" s="69">
+      <c r="K107" s="65">
         <f t="shared" si="5"/>
         <v>-4509.5438761985315</v>
       </c>
     </row>
     <row r="108" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J108" s="67">
+      <c r="J108" s="63">
         <v>0.98</v>
       </c>
-      <c r="K108" s="69">
+      <c r="K108" s="65">
         <f t="shared" si="5"/>
         <v>-4532.80737506484</v>
       </c>
     </row>
     <row r="109" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J109" s="67">
+      <c r="J109" s="63">
         <v>0.99</v>
       </c>
-      <c r="K109" s="69">
+      <c r="K109" s="65">
         <f t="shared" si="5"/>
         <v>-4555.664411233196</v>
       </c>
     </row>
     <row r="110" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J110" s="67">
+      <c r="J110" s="63">
         <v>1</v>
       </c>
-      <c r="K110" s="69">
+      <c r="K110" s="65">
         <f t="shared" si="5"/>
         <v>-4578.125</v>
       </c>
